--- a/Wastewater_Effluent_Filtration/Water_Salt_Transport_5.xlsx
+++ b/Wastewater_Effluent_Filtration/Water_Salt_Transport_5.xlsx
@@ -85,7 +85,7 @@
     <t>SI_Armp_CaPhosphate</t>
   </si>
   <si>
-    <t>NH4+ Permeability</t>
+    <t>d_CaPhosphate</t>
   </si>
 </sst>
 </file>
@@ -502,73 +502,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.20403021735768E-06</v>
+        <v>5.632530066408347E-06</v>
       </c>
       <c r="C2">
-        <v>0.03662643346750398</v>
+        <v>0.03340016876092325</v>
       </c>
       <c r="D2">
-        <v>0.002644902114585823</v>
+        <v>0.002250757076929093</v>
       </c>
       <c r="E2">
-        <v>0.03865785482588319</v>
+        <v>0.03542045071372785</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="G2">
-        <v>17.87113365670209</v>
+        <v>19.46125907445692</v>
       </c>
       <c r="H2">
-        <v>18.49581889360094</v>
+        <v>19.90433009992272</v>
       </c>
       <c r="I2">
-        <v>18.31306780726143</v>
+        <v>20.00787797960916</v>
       </c>
       <c r="J2">
-        <v>20.67854816773141</v>
+        <v>22.94062690406247</v>
       </c>
       <c r="K2">
-        <v>7.758695883553479</v>
+        <v>8.300163433712596</v>
       </c>
       <c r="L2">
-        <v>8.664053155390611</v>
+        <v>7.132102876562262</v>
       </c>
       <c r="M2">
-        <v>8.351382229908241</v>
+        <v>8.292906547685851</v>
       </c>
       <c r="N2">
-        <v>0.00999931209698373</v>
+        <v>0.009563941569259857</v>
       </c>
       <c r="O2">
-        <v>0.0008719187562413619</v>
+        <v>0.0005727799059399684</v>
       </c>
       <c r="P2">
-        <v>0.008761383067956034</v>
+        <v>0.008760842698210997</v>
       </c>
       <c r="Q2">
-        <v>0.0006877596380641979</v>
+        <v>0.0006621472059661578</v>
       </c>
       <c r="R2">
-        <v>0.0008728328121917295</v>
+        <v>0.0007111532459280809</v>
       </c>
       <c r="S2">
-        <v>2.081444696078623E-06</v>
+        <v>1.970481209303654E-06</v>
       </c>
       <c r="T2">
-        <v>0.002544947262742507</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0008162161018768904</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>11.43600380339711</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002864908855741146</v>
+        <v>2.953941082871452</v>
       </c>
       <c r="X2">
-        <v>1.612065205822326E-06</v>
+        <v>0.0001392131774924808</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -576,61 +576,61 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.196684775412985E-06</v>
+        <v>5.62503934286045E-06</v>
       </c>
       <c r="C3">
-        <v>0.0369696812589476</v>
+        <v>0.03371480928298379</v>
       </c>
       <c r="D3">
-        <v>0.002674257283614216</v>
+        <v>0.002275780629680008</v>
       </c>
       <c r="E3">
-        <v>0.03903551346178084</v>
+        <v>0.03576964660997769</v>
       </c>
       <c r="F3">
-        <v>6.499985236928875</v>
+        <v>6.899985237356524</v>
       </c>
       <c r="K3">
-        <v>7.755719182743906</v>
+        <v>8.300512462027461</v>
       </c>
       <c r="L3">
-        <v>8.703755295935776</v>
+        <v>7.127827766817744</v>
       </c>
       <c r="M3">
-        <v>8.377552477346311</v>
+        <v>8.293144345910937</v>
       </c>
       <c r="N3">
-        <v>0.01009150798931446</v>
+        <v>0.009654761384040866</v>
       </c>
       <c r="O3">
-        <v>0.0008923483479226655</v>
+        <v>0.0005781303120922517</v>
       </c>
       <c r="P3">
-        <v>0.008842934819773125</v>
+        <v>0.008842647703183167</v>
       </c>
       <c r="Q3">
-        <v>0.0006899463405858008</v>
+        <v>0.0006692335481062529</v>
       </c>
       <c r="R3">
-        <v>0.0008816282805502714</v>
+        <v>0.0007183167081979676</v>
       </c>
       <c r="S3">
-        <v>1.89132252717822E-06</v>
+        <v>1.987895900266956E-06</v>
       </c>
       <c r="T3">
-        <v>0.002562409193660342</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0008337778918179449</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>11.55903292282917</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002897797263974705</v>
+        <v>2.969182908408271</v>
       </c>
       <c r="X3">
-        <v>1.612214040862805E-06</v>
+        <v>0.0001410484015697395</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -638,61 +638,61 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.189071890556392E-06</v>
+        <v>5.617901469412129E-06</v>
       </c>
       <c r="C4">
-        <v>0.03731963456481834</v>
+        <v>0.03403561569781343</v>
       </c>
       <c r="D4">
-        <v>0.002704338020382712</v>
+        <v>0.002301195608339684</v>
       </c>
       <c r="E4">
-        <v>0.03942072840272404</v>
+        <v>0.0361261306933639</v>
       </c>
       <c r="F4">
-        <v>6.499970398548582</v>
+        <v>6.899970399414826</v>
       </c>
       <c r="K4">
-        <v>7.752579765468004</v>
+        <v>8.300874780105913</v>
       </c>
       <c r="L4">
-        <v>8.701714286020781</v>
+        <v>7.128924156158851</v>
       </c>
       <c r="M4">
-        <v>8.376722077213989</v>
+        <v>8.293553319005248</v>
       </c>
       <c r="N4">
-        <v>0.01018537696524703</v>
+        <v>0.009747380068448507</v>
       </c>
       <c r="O4">
-        <v>0.0009007440535716293</v>
+        <v>0.0005845078757135624</v>
       </c>
       <c r="P4">
-        <v>0.008926128579764832</v>
+        <v>0.008926049888439053</v>
       </c>
       <c r="Q4">
-        <v>0.0006976233611045361</v>
+        <v>0.0006763587948054317</v>
       </c>
       <c r="R4">
-        <v>0.0008906051882852009</v>
+        <v>0.0007256261858744747</v>
       </c>
       <c r="S4">
-        <v>1.912344935582338E-06</v>
+        <v>2.004394025019186E-06</v>
       </c>
       <c r="T4">
-        <v>0.002580048288577101</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0008399618459180469</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>11.62892375627203</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002931249050273932</v>
+        <v>2.984575101827424</v>
       </c>
       <c r="X4">
-        <v>1.6123710117266E-06</v>
+        <v>0.0001429223081493178</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -700,61 +700,61 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.181307935332481E-06</v>
+        <v>5.610620259870787E-06</v>
       </c>
       <c r="C5">
-        <v>0.03767649329208057</v>
+        <v>0.034362774667808</v>
       </c>
       <c r="D5">
-        <v>0.002735113921077197</v>
+        <v>0.002327193330758458</v>
       </c>
       <c r="E5">
-        <v>0.03981378336983601</v>
+        <v>0.03648993024909856</v>
       </c>
       <c r="F5">
-        <v>6.499955483403649</v>
+        <v>6.899955484719818</v>
       </c>
       <c r="K5">
-        <v>7.749415612373023</v>
+        <v>8.301234640224044</v>
       </c>
       <c r="L5">
-        <v>8.699415939837785</v>
+        <v>7.130004575421939</v>
       </c>
       <c r="M5">
-        <v>8.376049104564993</v>
+        <v>8.293963057703472</v>
       </c>
       <c r="N5">
-        <v>0.01028109483031585</v>
+        <v>0.00984184266837361</v>
       </c>
       <c r="O5">
-        <v>0.0009091857183969978</v>
+        <v>0.0005910216224220152</v>
       </c>
       <c r="P5">
-        <v>0.009010958530472669</v>
+        <v>0.009011098250229091</v>
       </c>
       <c r="Q5">
-        <v>0.0007054137387459429</v>
+        <v>0.0006836397844985991</v>
       </c>
       <c r="R5">
-        <v>0.0008997669701754032</v>
+        <v>0.0007330862043471495</v>
       </c>
       <c r="S5">
-        <v>1.932565661438334E-06</v>
+        <v>2.021232719884648E-06</v>
       </c>
       <c r="T5">
-        <v>0.002597987324068431</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0008463382119830417</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>11.68620398922762</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002965410122424711</v>
+        <v>3.000092314937284</v>
       </c>
       <c r="X5">
-        <v>1.612529219381349E-06</v>
+        <v>0.0001448352475742855</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -762,61 +762,61 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.173388342283643E-06</v>
+        <v>5.603191333581715E-06</v>
       </c>
       <c r="C6">
-        <v>0.03804046599386186</v>
+        <v>0.03469647864006894</v>
       </c>
       <c r="D6">
-        <v>0.00276660934119717</v>
+        <v>0.002353794055313116</v>
       </c>
       <c r="E6">
-        <v>0.04021492046993205</v>
+        <v>0.03686127299766428</v>
       </c>
       <c r="F6">
-        <v>6.499940489993135</v>
+        <v>6.899940491770957</v>
       </c>
       <c r="K6">
-        <v>7.746246026821185</v>
+        <v>8.301588656524347</v>
       </c>
       <c r="L6">
-        <v>8.697122069144321</v>
+        <v>7.131097087601938</v>
       </c>
       <c r="M6">
-        <v>8.375391493438984</v>
+        <v>8.294371011099679</v>
       </c>
       <c r="N6">
-        <v>0.010378718883565</v>
+        <v>0.009938205387602272</v>
       </c>
       <c r="O6">
-        <v>0.0009178252948548267</v>
+        <v>0.0005976854530405417</v>
       </c>
       <c r="P6">
-        <v>0.009097474622053155</v>
+        <v>0.009097842609247118</v>
       </c>
       <c r="Q6">
-        <v>0.00071337897016688</v>
+        <v>0.0006910864872407237</v>
       </c>
       <c r="R6">
-        <v>0.0009091194118890903</v>
+        <v>0.0007407014644682669</v>
       </c>
       <c r="S6">
-        <v>1.953113701147825E-06</v>
+        <v>2.038434117108921E-06</v>
       </c>
       <c r="T6">
-        <v>0.002616233668985988</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008528480912493169</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>11.73881411268093</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003000318683737679</v>
+        <v>3.015731142249038</v>
       </c>
       <c r="X6">
-        <v>1.612687698658941E-06</v>
+        <v>0.0001467882562778872</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -824,61 +824,61 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.165308385795589E-06</v>
+        <v>5.595610137319468E-06</v>
       </c>
       <c r="C7">
-        <v>0.03841176974810044</v>
+        <v>0.03503692795148742</v>
       </c>
       <c r="D7">
-        <v>0.002798849770066248</v>
+        <v>0.002381018984247204</v>
       </c>
       <c r="E7">
-        <v>0.04062439186296329</v>
+        <v>0.03724039618310581</v>
       </c>
       <c r="F7">
-        <v>6.499925416768648</v>
+        <v>6.899925419020274</v>
       </c>
       <c r="K7">
-        <v>7.743055047985182</v>
+        <v>8.301946876209216</v>
       </c>
       <c r="L7">
-        <v>8.694814518921843</v>
+        <v>7.132199582904933</v>
       </c>
       <c r="M7">
-        <v>8.374740554164044</v>
+        <v>8.294775907368567</v>
       </c>
       <c r="N7">
-        <v>0.01047830723713037</v>
+        <v>0.01003652665007134</v>
       </c>
       <c r="O7">
-        <v>0.0009266628543334209</v>
+        <v>0.00060450470457907</v>
       </c>
       <c r="P7">
-        <v>0.009185728260494064</v>
+        <v>0.009186334778952449</v>
       </c>
       <c r="Q7">
-        <v>0.0007215264886469845</v>
+        <v>0.0006987050376951627</v>
       </c>
       <c r="R7">
-        <v>0.0009186685308173845</v>
+        <v>0.0007484768647877528</v>
       </c>
       <c r="S7">
-        <v>1.974057696847137E-06</v>
+        <v>2.056016002735729E-06</v>
       </c>
       <c r="T7">
-        <v>0.002634795622435847</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0008594917655918521</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>11.78940161518535</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.000303599045717357</v>
+        <v>3.031511546046421</v>
       </c>
       <c r="X7">
-        <v>1.612847247600741E-06</v>
+        <v>0.0001487831027204457</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -886,61 +886,61 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.157063107764957E-06</v>
+        <v>5.58787191946081E-06</v>
       </c>
       <c r="C8">
-        <v>0.03879063059893059</v>
+        <v>0.03538433123837295</v>
       </c>
       <c r="D8">
-        <v>0.002831861929202123</v>
+        <v>0.002408890325547733</v>
       </c>
       <c r="E8">
-        <v>0.04104246025827687</v>
+        <v>0.03762754706858538</v>
       </c>
       <c r="F8">
-        <v>6.499910262132372</v>
+        <v>6.899910264870382</v>
       </c>
       <c r="K8">
-        <v>7.739842140670543</v>
+        <v>8.302295843702398</v>
       </c>
       <c r="L8">
-        <v>8.692467756142056</v>
+        <v>7.133309925796739</v>
       </c>
       <c r="M8">
-        <v>8.374081931900504</v>
+        <v>8.295175019832126</v>
       </c>
       <c r="N8">
-        <v>0.01057992047524524</v>
+        <v>0.01013686730906594</v>
       </c>
       <c r="O8">
-        <v>0.0009356971275420717</v>
+        <v>0.0006114849255434129</v>
       </c>
       <c r="P8">
-        <v>0.009275772960194564</v>
+        <v>0.00927662871237008</v>
       </c>
       <c r="Q8">
-        <v>0.0007298655129750112</v>
+        <v>0.0007065020854650567</v>
       </c>
       <c r="R8">
-        <v>0.000928420599680369</v>
+        <v>0.0007564175121152529</v>
       </c>
       <c r="S8">
-        <v>1.995477593357299E-06</v>
+        <v>2.074004125664327E-06</v>
       </c>
       <c r="T8">
-        <v>0.002653681833678868</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0008662671524243817</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>11.83909696624716</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0003072442816649603</v>
+        <v>3.047412735348331</v>
       </c>
       <c r="X8">
-        <v>1.613007892966473E-06</v>
+        <v>0.0001508204314948524</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -948,61 +948,61 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.148647376210389E-06</v>
+        <v>5.579971734713607E-06</v>
       </c>
       <c r="C9">
-        <v>0.03917728402548681</v>
+        <v>0.0357389058718442</v>
       </c>
       <c r="D9">
-        <v>0.002865673812887041</v>
+        <v>0.002437431347173529</v>
       </c>
       <c r="E9">
-        <v>0.04146939950047387</v>
+        <v>0.03802298347311075</v>
       </c>
       <c r="F9">
-        <v>6.499895024434823</v>
+        <v>6.899895027672259</v>
       </c>
       <c r="K9">
-        <v>7.736612898341917</v>
+        <v>8.30263795154101</v>
       </c>
       <c r="L9">
-        <v>8.690098053340312</v>
+        <v>7.134425104229697</v>
       </c>
       <c r="M9">
-        <v>8.373425267781464</v>
+        <v>8.295564008311905</v>
       </c>
       <c r="N9">
-        <v>0.01068362180156462</v>
+        <v>0.01023929077555543</v>
       </c>
       <c r="O9">
-        <v>0.000944940572272661</v>
+        <v>0.0006186318411361873</v>
       </c>
       <c r="P9">
-        <v>0.009367664438121657</v>
+        <v>0.009368780611584113</v>
       </c>
       <c r="Q9">
-        <v>0.0007384010216015474</v>
+        <v>0.0007144848355733522</v>
       </c>
       <c r="R9">
-        <v>0.0009383821601329175</v>
+        <v>0.00076452873263127</v>
       </c>
       <c r="S9">
-        <v>2.017343419843062E-06</v>
+        <v>2.092432558638885E-06</v>
       </c>
       <c r="T9">
-        <v>0.002672901346380529</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0008731827729769552</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>11.88848032448878</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0003109712193208298</v>
+        <v>3.063442025567383</v>
       </c>
       <c r="X9">
-        <v>1.613169355082904E-06</v>
+        <v>0.0001529017722795475</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1010,61 +1010,61 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.140055829401038E-06</v>
+        <v>5.571904424144045E-06</v>
       </c>
       <c r="C10">
-        <v>0.03957197544084114</v>
+        <v>0.03610087842102539</v>
       </c>
       <c r="D10">
-        <v>0.002900314787682692</v>
+        <v>0.002466666444655962</v>
       </c>
       <c r="E10">
-        <v>0.04190549514227834</v>
+        <v>0.0384269743354624</v>
       </c>
       <c r="F10">
-        <v>6.499879701972652</v>
+        <v>6.899879705723037</v>
       </c>
       <c r="K10">
-        <v>7.733369013578947</v>
+        <v>8.302979006416358</v>
       </c>
       <c r="L10">
-        <v>8.687717715424977</v>
+        <v>7.135556931929241</v>
       </c>
       <c r="M10">
-        <v>8.372778432171321</v>
+        <v>8.295955098007779</v>
       </c>
       <c r="N10">
-        <v>0.0107894770323178</v>
+        <v>0.01034386315527738</v>
       </c>
       <c r="O10">
-        <v>0.0009544048908848785</v>
+        <v>0.0006259513997704212</v>
       </c>
       <c r="P10">
-        <v>0.009461460779605571</v>
+        <v>0.009462849043932055</v>
       </c>
       <c r="Q10">
-        <v>0.0007471384434592384</v>
+        <v>0.0007226571182266011</v>
       </c>
       <c r="R10">
-        <v>0.0009485600385754509</v>
+        <v>0.0007728160837190158</v>
       </c>
       <c r="S10">
-        <v>2.039632837351694E-06</v>
+        <v>2.111257633051514E-06</v>
       </c>
       <c r="T10">
-        <v>0.00269246350478709</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0008802465419979813</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>11.93788632176044</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0003147826111616461</v>
+        <v>3.079612082105349</v>
       </c>
       <c r="X10">
-        <v>1.613331549321052E-06</v>
+        <v>0.0001550288226321574</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1072,61 +1072,61 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.131282889804544E-06</v>
+        <v>5.56366461883699E-06</v>
       </c>
       <c r="C11">
-        <v>0.03997496072274399</v>
+        <v>0.03647048514604044</v>
       </c>
       <c r="D11">
-        <v>0.00293581566398257</v>
+        <v>0.002496621203886817</v>
       </c>
       <c r="E11">
-        <v>0.04235104508369459</v>
+        <v>0.03883980032137321</v>
       </c>
       <c r="F11">
-        <v>6.499864292986074</v>
+        <v>6.899864297263433</v>
       </c>
       <c r="K11">
-        <v>7.730096873935469</v>
+        <v>8.303319089162065</v>
       </c>
       <c r="L11">
-        <v>8.685305890073948</v>
+        <v>7.136701696411305</v>
       </c>
       <c r="M11">
-        <v>8.372129724440546</v>
+        <v>8.296344164928904</v>
       </c>
       <c r="N11">
-        <v>0.01089755474815772</v>
+        <v>0.01045065339434888</v>
       </c>
       <c r="O11">
-        <v>0.0009640910229351296</v>
+        <v>0.0006334501027221014</v>
       </c>
       <c r="P11">
-        <v>0.009557222563519267</v>
+        <v>0.009558895109049698</v>
       </c>
       <c r="Q11">
-        <v>0.0007560872802148449</v>
+        <v>0.0007310268955073394</v>
       </c>
       <c r="R11">
-        <v>0.0009589613617154299</v>
+        <v>0.0007812853675221583</v>
       </c>
       <c r="S11">
-        <v>2.062417587743168E-06</v>
+        <v>2.130512600535464E-06</v>
       </c>
       <c r="T11">
-        <v>0.002712377976905652</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0008874581875611982</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>11.98751535617639</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0003186800787274256</v>
+        <v>3.09592593480096</v>
       </c>
       <c r="X11">
-        <v>1.613495156303226E-06</v>
+        <v>0.0001572031102049251</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1134,61 +1134,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.122322723504897E-06</v>
+        <v>5.555246704190509E-06</v>
       </c>
       <c r="C12">
-        <v>0.04038650677895245</v>
+        <v>0.03684797252317548</v>
       </c>
       <c r="D12">
-        <v>0.002972208800432866</v>
+        <v>0.002527322484231913</v>
       </c>
       <c r="E12">
-        <v>0.04280636023282038</v>
+        <v>0.0392617544595221</v>
       </c>
       <c r="F12">
-        <v>6.499848795656574</v>
+        <v>6.899848800475452</v>
       </c>
       <c r="K12">
-        <v>7.726818471197552</v>
+        <v>8.30365529472336</v>
       </c>
       <c r="L12">
-        <v>8.682880355652353</v>
+        <v>7.137861757207763</v>
       </c>
       <c r="M12">
-        <v>8.371489508971553</v>
+        <v>8.296732456181262</v>
       </c>
       <c r="N12">
-        <v>0.01100792656732686</v>
+        <v>0.01055973343092251</v>
       </c>
       <c r="O12">
-        <v>0.0009740135141365494</v>
+        <v>0.0006411341548524881</v>
       </c>
       <c r="P12">
-        <v>0.009655012955555983</v>
+        <v>0.009656982533644613</v>
       </c>
       <c r="Q12">
-        <v>0.000765253834304462</v>
+        <v>0.0007396006129432826</v>
       </c>
       <c r="R12">
-        <v>0.0009695935722057376</v>
+        <v>0.0007899426436879541</v>
       </c>
       <c r="S12">
-        <v>2.085663452316145E-06</v>
+        <v>2.15020669666558E-06</v>
       </c>
       <c r="T12">
-        <v>0.002732654863453924</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.0008948269916747036</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>12.0375067765562</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.0003226684057880023</v>
+        <v>3.112381655520913</v>
       </c>
       <c r="X12">
-        <v>1.613659076440122E-06</v>
+        <v>0.000159426072052962</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1196,61 +1196,61 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.113169267450443E-06</v>
+        <v>5.546644834682328E-06</v>
       </c>
       <c r="C13">
-        <v>0.04080689214949761</v>
+        <v>0.03723359780451193</v>
       </c>
       <c r="D13">
-        <v>0.003009528180617834</v>
+        <v>0.002558798486813283</v>
       </c>
       <c r="E13">
-        <v>0.04327176523624621</v>
+        <v>0.03969314283499711</v>
       </c>
       <c r="F13">
-        <v>6.49983320810392</v>
+        <v>6.899833213479416</v>
       </c>
       <c r="K13">
-        <v>7.723513882848569</v>
+        <v>8.303995376218165</v>
       </c>
       <c r="L13">
-        <v>8.680428260924833</v>
+        <v>7.139047270273152</v>
       </c>
       <c r="M13">
-        <v>8.370851195284132</v>
+        <v>8.297131225244822</v>
       </c>
       <c r="N13">
-        <v>0.01112066716343012</v>
+        <v>0.01067117836660869</v>
       </c>
       <c r="O13">
-        <v>0.0009841765429606662</v>
+        <v>0.0006490110340797083</v>
       </c>
       <c r="P13">
-        <v>0.00975489788950263</v>
+        <v>0.009757177836124403</v>
       </c>
       <c r="Q13">
-        <v>0.0007746469696147397</v>
+        <v>0.0007483838757790344</v>
       </c>
       <c r="R13">
-        <v>0.0009804644475849896</v>
+        <v>0.0007987942441035865</v>
       </c>
       <c r="S13">
-        <v>2.109419873387726E-06</v>
+        <v>2.170299628375332E-06</v>
       </c>
       <c r="T13">
-        <v>0.002753304614822229</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>0.0009023554187335466</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>12.08795635949949</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.0003267488461265137</v>
+        <v>3.128995890971488</v>
       </c>
       <c r="X13">
-        <v>1.613824305857571E-06</v>
+        <v>0.0001616997279488053</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1258,61 +1258,61 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.103816180186934E-06</v>
+        <v>5.537852887103732E-06</v>
       </c>
       <c r="C14">
-        <v>0.04123640764914397</v>
+        <v>0.03762762961494032</v>
       </c>
       <c r="D14">
-        <v>0.003047809535349103</v>
+        <v>0.002591078853148134</v>
       </c>
       <c r="E14">
-        <v>0.043747599228292</v>
+        <v>0.04013428530950559</v>
       </c>
       <c r="F14">
-        <v>6.499817528383692</v>
+        <v>6.899817534331491</v>
       </c>
       <c r="K14">
-        <v>7.720184497124947</v>
+        <v>8.304327867774081</v>
       </c>
       <c r="L14">
-        <v>8.677924365387602</v>
+        <v>7.14023682563373</v>
       </c>
       <c r="M14">
-        <v>8.370200474305046</v>
+        <v>8.297515964874039</v>
       </c>
       <c r="N14">
-        <v>0.01123585455684454</v>
+        <v>0.01078506663175107</v>
       </c>
       <c r="O14">
-        <v>0.0009945812683454546</v>
+        <v>0.0006570876950088085</v>
       </c>
       <c r="P14">
-        <v>0.009856946195410447</v>
+        <v>0.009859550494764691</v>
       </c>
       <c r="Q14">
-        <v>0.0007842790195115311</v>
+        <v>0.0007573897195248386</v>
       </c>
       <c r="R14">
-        <v>0.0009915821183544397</v>
+        <v>0.0008078467889271685</v>
       </c>
       <c r="S14">
-        <v>2.133776620658215E-06</v>
+        <v>2.190928603435487E-06</v>
       </c>
       <c r="T14">
-        <v>0.002774338128414147</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.0009100422624720441</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>12.1389291118069</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.0003309250612750857</v>
+        <v>3.145751835711422</v>
       </c>
       <c r="X14">
-        <v>1.613990775143753E-06</v>
+        <v>0.000164025205485053</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1320,61 +1320,61 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.094256853225082E-06</v>
+        <v>5.528864488932972E-06</v>
       </c>
       <c r="C15">
-        <v>0.04167535705275081</v>
+        <v>0.0380303485892138</v>
       </c>
       <c r="D15">
-        <v>0.003087090441338142</v>
+        <v>0.002624194739350457</v>
       </c>
       <c r="E15">
-        <v>0.04423421665094694</v>
+        <v>0.04058551631559185</v>
       </c>
       <c r="F15">
-        <v>6.499801754483742</v>
+        <v>6.899801761020132</v>
       </c>
       <c r="K15">
-        <v>7.716843014305631</v>
+        <v>8.30464881457338</v>
       </c>
       <c r="L15">
-        <v>8.675429116024123</v>
+        <v>7.141439453621796</v>
       </c>
       <c r="M15">
-        <v>8.369572223979786</v>
+        <v>8.297896954125259</v>
       </c>
       <c r="N15">
-        <v>0.01135357034176982</v>
+        <v>0.01090148018274811</v>
       </c>
       <c r="O15">
-        <v>0.001005256529030747</v>
+        <v>0.0006653725015570845</v>
       </c>
       <c r="P15">
-        <v>0.009961229726167906</v>
+        <v>0.009964173032411126</v>
       </c>
       <c r="Q15">
-        <v>0.0007941507900628787</v>
+        <v>0.0007666250081730319</v>
       </c>
       <c r="R15">
-        <v>0.001002955087799656</v>
+        <v>0.0008171072011147975</v>
       </c>
       <c r="S15">
-        <v>2.158576336262634E-06</v>
+        <v>2.212060220802247E-06</v>
       </c>
       <c r="T15">
-        <v>0.002795766816528424</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.0009179089709401322</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>12.19049293180942</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.0003352015402910122</v>
+        <v>3.162645897972723</v>
       </c>
       <c r="X15">
-        <v>1.614157849284718E-06</v>
+        <v>0.0001664040634036277</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1382,61 +1382,61 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.084484369367125E-06</v>
+        <v>5.519672958814782E-06</v>
       </c>
       <c r="C16">
-        <v>0.04212405782730213</v>
+        <v>0.0384420480525843</v>
       </c>
       <c r="D16">
-        <v>0.003127410456233486</v>
+        <v>0.002658178933182277</v>
       </c>
       <c r="E16">
-        <v>0.04473198811535038</v>
+        <v>0.04104718567618946</v>
       </c>
       <c r="F16">
-        <v>6.499785884321603</v>
+        <v>6.899785891463513</v>
       </c>
       <c r="K16">
-        <v>7.713481551817596</v>
+        <v>8.30496689937114</v>
       </c>
       <c r="L16">
-        <v>8.672910410735506</v>
+        <v>7.142654182287691</v>
       </c>
       <c r="M16">
-        <v>8.368949875840501</v>
+        <v>8.298272058411689</v>
       </c>
       <c r="N16">
-        <v>0.01147389957215051</v>
+        <v>0.01102050469066893</v>
       </c>
       <c r="O16">
-        <v>0.001016203067919326</v>
+        <v>0.0006738729703343856</v>
       </c>
       <c r="P16">
-        <v>0.01006782366728541</v>
+        <v>0.0100711212652511</v>
       </c>
       <c r="Q16">
-        <v>0.0008042753640834846</v>
+        <v>0.0007760983561543927</v>
       </c>
       <c r="R16">
-        <v>0.001014592256537602</v>
+        <v>0.0008265827260089138</v>
       </c>
       <c r="S16">
-        <v>2.183925166220913E-06</v>
+        <v>2.233724431840152E-06</v>
       </c>
       <c r="T16">
-        <v>0.002817602372872474</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0.0009259541491577304</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>12.24269630861206</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.0003395810928257104</v>
+        <v>3.179696735726253</v>
       </c>
       <c r="X16">
-        <v>1.61432592240912E-06</v>
+        <v>0.0001688386641748732</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1444,61 +1444,61 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.074491519439858E-06</v>
+        <v>5.510271329511458E-06</v>
       </c>
       <c r="C17">
-        <v>0.04258284191402058</v>
+        <v>0.03886303474810669</v>
       </c>
       <c r="D17">
-        <v>0.003168811231278722</v>
+        <v>0.002693065944116974</v>
       </c>
       <c r="E17">
-        <v>0.04524130134072312</v>
+        <v>0.04151965950861585</v>
       </c>
       <c r="F17">
-        <v>6.499769915740508</v>
+        <v>6.899769923505541</v>
       </c>
       <c r="K17">
-        <v>7.710089212123122</v>
+        <v>8.305294615785536</v>
       </c>
       <c r="L17">
-        <v>8.670324448044605</v>
+        <v>7.143900320674997</v>
       </c>
       <c r="M17">
-        <v>8.368307446893864</v>
+        <v>8.298660765805629</v>
       </c>
       <c r="N17">
-        <v>0.0115969312957297</v>
+        <v>0.01114222976973169</v>
       </c>
       <c r="O17">
-        <v>0.001027415926782874</v>
+        <v>0.0006825976293853926</v>
       </c>
       <c r="P17">
-        <v>0.01017680658849955</v>
+        <v>0.01018047447594636</v>
       </c>
       <c r="Q17">
-        <v>0.0008146689645789152</v>
+        <v>0.0007858144621109497</v>
       </c>
       <c r="R17">
-        <v>0.00102650294278903</v>
+        <v>0.0008362809495568793</v>
       </c>
       <c r="S17">
-        <v>2.209975858179787E-06</v>
+        <v>2.2558405803605E-06</v>
       </c>
       <c r="T17">
-        <v>0.002839857057857353</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.0009341717981185729</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>12.29557035578876</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.0003440665005043934</v>
+        <v>3.196929682921308</v>
       </c>
       <c r="X17">
-        <v>1.614495539393844E-06</v>
+        <v>0.0001713316470962227</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1506,61 +1506,61 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.064270740011853E-06</v>
+        <v>5.500652298544973E-06</v>
       </c>
       <c r="C18">
-        <v>0.0430520565650056</v>
+        <v>0.03929362961482084</v>
       </c>
       <c r="D18">
-        <v>0.003211336676470849</v>
+        <v>0.002728892131806755</v>
       </c>
       <c r="E18">
-        <v>0.04576256212644009</v>
+        <v>0.04200332116713935</v>
       </c>
       <c r="F18">
-        <v>6.499753846506296</v>
+        <v>6.899753854912747</v>
       </c>
       <c r="K18">
-        <v>7.706686973382409</v>
+        <v>8.305598551816756</v>
       </c>
       <c r="L18">
-        <v>8.667756818118654</v>
+        <v>7.145144159261004</v>
       </c>
       <c r="M18">
-        <v>8.367694322522141</v>
+        <v>8.299026517349516</v>
       </c>
       <c r="N18">
-        <v>0.01172275885964573</v>
+        <v>0.01126674919997391</v>
       </c>
       <c r="O18">
-        <v>0.001038934707401653</v>
+        <v>0.0006915555737543952</v>
       </c>
       <c r="P18">
-        <v>0.01028826060783193</v>
+        <v>0.01029231566658726</v>
       </c>
       <c r="Q18">
-        <v>0.0008253303687694097</v>
+        <v>0.0007957917316456297</v>
       </c>
       <c r="R18">
-        <v>0.001038696906681064</v>
+        <v>0.0008462098199018379</v>
       </c>
       <c r="S18">
-        <v>2.23649471488409E-06</v>
+        <v>2.278615314879388E-06</v>
       </c>
       <c r="T18">
-        <v>0.002862543787139957</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.0009425914378467017</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>12.34916319578178</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.000348663218791502</v>
+        <v>3.214289897459992</v>
       </c>
       <c r="X18">
-        <v>1.614665651330879E-06</v>
+        <v>0.0001738832490244445</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1568,61 +1568,61 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.053814150781299E-06</v>
+        <v>5.490808227492187E-06</v>
       </c>
       <c r="C19">
-        <v>0.04353206523836144</v>
+        <v>0.03973416862064029</v>
       </c>
       <c r="D19">
-        <v>0.003255033082559337</v>
+        <v>0.002765695822759027</v>
       </c>
       <c r="E19">
-        <v>0.04629619544231771</v>
+        <v>0.04249857227055086</v>
       </c>
       <c r="F19">
-        <v>6.49973767430334</v>
+        <v>6.899737683370265</v>
       </c>
       <c r="K19">
-        <v>7.703258817833469</v>
+        <v>8.305912753694123</v>
       </c>
       <c r="L19">
-        <v>8.665136023048873</v>
+        <v>7.146412151676695</v>
       </c>
       <c r="M19">
-        <v>8.367071489952266</v>
+        <v>8.299398029613883</v>
       </c>
       <c r="N19">
-        <v>0.01185147963256434</v>
+        <v>0.01139416117137415</v>
       </c>
       <c r="O19">
-        <v>0.001050748735837531</v>
+        <v>0.0007007567495223528</v>
       </c>
       <c r="P19">
-        <v>0.01040227181553148</v>
+        <v>0.01040673161761065</v>
       </c>
       <c r="Q19">
-        <v>0.0008362805757111017</v>
+        <v>0.0008060342935613075</v>
       </c>
       <c r="R19">
-        <v>0.00105118438152403</v>
+        <v>0.000856377665740235</v>
       </c>
       <c r="S19">
-        <v>2.263707502654432E-06</v>
+        <v>2.301923461556264E-06</v>
       </c>
       <c r="T19">
-        <v>0.002885675743155539</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0.0009512015598202842</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>12.40350329905179</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0003533742738894831</v>
+        <v>3.231841118328401</v>
       </c>
       <c r="X19">
-        <v>1.614837059108326E-06</v>
+        <v>0.0001764974665843376</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1630,61 +1630,61 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.043113486029713E-06</v>
+        <v>5.480731121705134E-06</v>
       </c>
       <c r="C20">
-        <v>0.04402324855733463</v>
+        <v>0.04018500365476079</v>
       </c>
       <c r="D20">
-        <v>0.003299949312119287</v>
+        <v>0.002803517444640737</v>
       </c>
       <c r="E20">
-        <v>0.04684264653651293</v>
+        <v>0.04300583379494356</v>
       </c>
       <c r="F20">
-        <v>6.499721396730438</v>
+        <v>6.899721406477664</v>
       </c>
       <c r="K20">
-        <v>7.699809373704601</v>
+        <v>8.306222830146963</v>
       </c>
       <c r="L20">
-        <v>8.662493463266472</v>
+        <v>7.147701984856398</v>
       </c>
       <c r="M20">
-        <v>8.366457272493992</v>
+        <v>8.299770354460467</v>
       </c>
       <c r="N20">
-        <v>0.01198319586301222</v>
+        <v>0.01152456854237234</v>
       </c>
       <c r="O20">
-        <v>0.001062880262015081</v>
+        <v>0.0007102107231035734</v>
       </c>
       <c r="P20">
-        <v>0.01051893024528539</v>
+        <v>0.01052381329229418</v>
       </c>
       <c r="Q20">
-        <v>0.0008475261684849796</v>
+        <v>0.0008165535726695236</v>
       </c>
       <c r="R20">
-        <v>0.001063976097060876</v>
+        <v>0.0008667932235729018</v>
       </c>
       <c r="S20">
-        <v>2.291543561671851E-06</v>
+        <v>2.32581156888568E-06</v>
       </c>
       <c r="T20">
-        <v>0.002909266891732798</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.0009600181124343754</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>12.45862490296054</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.0003582042634369216</v>
+        <v>3.249561751845818</v>
       </c>
       <c r="X20">
-        <v>1.61500953131477E-06</v>
+        <v>0.0001791758103748613</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1692,61 +1692,61 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.03216010392059E-06</v>
+        <v>5.47041260114192E-06</v>
       </c>
       <c r="C21">
-        <v>0.04452600533813976</v>
+        <v>0.04064650348451537</v>
       </c>
       <c r="D21">
-        <v>0.003346136961449894</v>
+        <v>0.002842399675232061</v>
       </c>
       <c r="E21">
-        <v>0.04740238217249707</v>
+        <v>0.04352554724423043</v>
       </c>
       <c r="F21">
-        <v>6.499705011296672</v>
+        <v>6.899705021744861</v>
       </c>
       <c r="K21">
-        <v>7.69633010921486</v>
+        <v>8.306514280784134</v>
       </c>
       <c r="L21">
-        <v>8.659824163969089</v>
+        <v>7.148998685413171</v>
       </c>
       <c r="M21">
-        <v>8.365847390101049</v>
+        <v>8.300127644601794</v>
       </c>
       <c r="N21">
-        <v>0.01211801457413564</v>
+        <v>0.01165807913273368</v>
       </c>
       <c r="O21">
-        <v>0.001075338732873286</v>
+        <v>0.0007199280864719049</v>
       </c>
       <c r="P21">
-        <v>0.01063833029561626</v>
+        <v>0.01064365600488214</v>
       </c>
       <c r="Q21">
-        <v>0.0008590796609689332</v>
+        <v>0.0008273649032917837</v>
       </c>
       <c r="R21">
-        <v>0.001077083313770743</v>
+        <v>0.0008774656607581365</v>
       </c>
       <c r="S21">
-        <v>2.320048246611125E-06</v>
+        <v>2.350387166902814E-06</v>
       </c>
       <c r="T21">
-        <v>0.002933331691477223</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.0009690466147546361</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>12.51455926377888</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.0003631569553708738</v>
+        <v>3.267430713630183</v>
       </c>
       <c r="X21">
-        <v>1.615183494539257E-06</v>
+        <v>0.0001819198281465121</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1754,61 +1754,61 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.020944935743298E-06</v>
+        <v>5.459843881678447E-06</v>
       </c>
       <c r="C22">
-        <v>0.04504075369284839</v>
+        <v>0.0411190547821314</v>
       </c>
       <c r="D22">
-        <v>0.003393650569962645</v>
+        <v>0.002882387598232211</v>
       </c>
       <c r="E22">
-        <v>0.04797589191725805</v>
+        <v>0.04405817591019971</v>
       </c>
       <c r="F22">
-        <v>6.499688515416824</v>
+        <v>6.899688526587492</v>
       </c>
       <c r="K22">
-        <v>7.692838211865578</v>
+        <v>8.306817700135131</v>
       </c>
       <c r="L22">
-        <v>8.65712134035706</v>
+        <v>7.150326247065663</v>
       </c>
       <c r="M22">
-        <v>8.365241070798044</v>
+        <v>8.300494755430794</v>
       </c>
       <c r="N22">
-        <v>0.01225604802215142</v>
+        <v>0.01179480602081195</v>
       </c>
       <c r="O22">
-        <v>0.00108813890475498</v>
+        <v>0.0007299201376014021</v>
       </c>
       <c r="P22">
-        <v>0.01076057092854935</v>
+        <v>0.01076635964365202</v>
       </c>
       <c r="Q22">
-        <v>0.0008709561400261897</v>
+        <v>0.0008384744915997723</v>
       </c>
       <c r="R22">
-        <v>0.001090517854589794</v>
+        <v>0.0008884046016780268</v>
       </c>
       <c r="S22">
-        <v>2.349256093185868E-06</v>
+        <v>2.375543288135226E-06</v>
       </c>
       <c r="T22">
-        <v>0.002957885254936255</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.0009782943764703781</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>12.57133656115733</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.0003682385868446244</v>
+        <v>3.285505668527229</v>
       </c>
       <c r="X22">
-        <v>1.615358089406721E-06</v>
+        <v>0.0001847337243285637</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -1816,61 +1816,61 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.009458495825595E-06</v>
+        <v>5.449015755624463E-06</v>
       </c>
       <c r="C23">
-        <v>0.04556793221339124</v>
+        <v>0.04160306322749723</v>
       </c>
       <c r="D23">
-        <v>0.00344254781060811</v>
+        <v>0.002923528871793205</v>
       </c>
       <c r="E23">
-        <v>0.04856368956135799</v>
+        <v>0.04460420622507471</v>
       </c>
       <c r="F23">
-        <v>6.499671906406208</v>
+        <v>6.899671918321796</v>
       </c>
       <c r="K23">
-        <v>7.689311650261969</v>
+        <v>8.307105877041698</v>
       </c>
       <c r="L23">
-        <v>8.654386826479373</v>
+        <v>7.151659964476542</v>
       </c>
       <c r="M23">
-        <v>8.364638950518014</v>
+        <v>8.300844187128783</v>
       </c>
       <c r="N23">
-        <v>0.01239741396034631</v>
+        <v>0.01193486786743487</v>
       </c>
       <c r="O23">
-        <v>0.001101293863089164</v>
+        <v>0.0007401988786247694</v>
       </c>
       <c r="P23">
-        <v>0.01088575592587243</v>
+        <v>0.01089202907595648</v>
       </c>
       <c r="Q23">
-        <v>0.0008831676261355896</v>
+        <v>0.0008499020645897819</v>
       </c>
       <c r="R23">
-        <v>0.001104292140646713</v>
+        <v>0.0008996201593791648</v>
       </c>
       <c r="S23">
-        <v>2.379188968051271E-06</v>
+        <v>2.401453651811583E-06</v>
       </c>
       <c r="T23">
-        <v>0.002982943367321899</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.0009877703173296441</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>12.62898716820044</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.0003734518425683982</v>
+        <v>3.303743570602187</v>
       </c>
       <c r="X23">
-        <v>1.615534417486901E-06</v>
+        <v>0.0001876185799705294</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -1878,61 +1878,61 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.997690833426145E-06</v>
+        <v>5.437918554574397E-06</v>
       </c>
       <c r="C24">
-        <v>0.04610800124419615</v>
+        <v>0.04209895469359599</v>
       </c>
       <c r="D24">
-        <v>0.003492889730891654</v>
+        <v>0.002965873919334861</v>
       </c>
       <c r="E24">
-        <v>0.04916631461379469</v>
+        <v>0.04516414921101287</v>
       </c>
       <c r="F24">
-        <v>6.499655181475892</v>
+        <v>6.899655194159815</v>
       </c>
       <c r="K24">
-        <v>7.685777929448022</v>
+        <v>8.307395945271997</v>
       </c>
       <c r="L24">
-        <v>8.651645403422872</v>
+        <v>7.153031715176922</v>
       </c>
       <c r="M24">
-        <v>8.364055455040361</v>
+        <v>8.301208761532585</v>
       </c>
       <c r="N24">
-        <v>0.01254223601287525</v>
+        <v>0.01207838926472731</v>
       </c>
       <c r="O24">
-        <v>0.001114828780813704</v>
+        <v>0.0007507752996901309</v>
       </c>
       <c r="P24">
-        <v>0.01101399423740751</v>
+        <v>0.01102077429405092</v>
       </c>
       <c r="Q24">
-        <v>0.0008957262791045821</v>
+        <v>0.000861651283368582</v>
       </c>
       <c r="R24">
-        <v>0.001118419229770799</v>
+        <v>0.0009111229632987462</v>
       </c>
       <c r="S24">
-        <v>2.409797316658533E-06</v>
+        <v>2.427967542764639E-06</v>
       </c>
       <c r="T24">
-        <v>0.003008522508988466</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.000997489903668993</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>12.68754559742243</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.0003788052119288582</v>
+        <v>3.322178739529846</v>
       </c>
       <c r="X24">
-        <v>1.615711103527599E-06</v>
+        <v>0.000190578105994636</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -1940,61 +1940,61 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.985631498165835E-06</v>
+        <v>5.426542126706389E-06</v>
       </c>
       <c r="C25">
-        <v>0.04666144425086245</v>
+        <v>0.04260717652183315</v>
       </c>
       <c r="D25">
-        <v>0.003544741005366471</v>
+        <v>0.003009476128866123</v>
       </c>
       <c r="E25">
-        <v>0.04978433391273202</v>
+        <v>0.04573854204359477</v>
       </c>
       <c r="F25">
-        <v>6.499638337726924</v>
+        <v>6.89963835120361</v>
       </c>
       <c r="K25">
-        <v>7.682201673502642</v>
+        <v>8.307670982073745</v>
       </c>
       <c r="L25">
-        <v>8.648833364518781</v>
+        <v>7.154395628512635</v>
       </c>
       <c r="M25">
-        <v>8.363456620137613</v>
+        <v>8.301539529635724</v>
       </c>
       <c r="N25">
-        <v>0.01269064389900592</v>
+        <v>0.01222550113440311</v>
       </c>
       <c r="O25">
-        <v>0.001128737266397574</v>
+        <v>0.0007616656556198533</v>
       </c>
       <c r="P25">
-        <v>0.01114540031478807</v>
+        <v>0.01115271095652732</v>
       </c>
       <c r="Q25">
-        <v>0.0009086544368363734</v>
+        <v>0.0008737521960706683</v>
       </c>
       <c r="R25">
-        <v>0.00113291285876371</v>
+        <v>0.0009229241970098629</v>
       </c>
       <c r="S25">
-        <v>2.441304896172405E-06</v>
+        <v>2.455384169554196E-06</v>
       </c>
       <c r="T25">
-        <v>0.003034639815551057</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0.001007446231417452</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>12.74703657871274</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>0.0003843001899918821</v>
+        <v>3.340786428940227</v>
       </c>
       <c r="X25">
-        <v>1.615889916324868E-06</v>
+        <v>0.0001936142594327913</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2002,61 +2002,61 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.973269531388424E-06</v>
+        <v>5.414875812091961E-06</v>
       </c>
       <c r="C26">
-        <v>0.04722876929356634</v>
+        <v>0.04312819889542482</v>
       </c>
       <c r="D26">
-        <v>0.003598170193427182</v>
+        <v>0.003054392070012929</v>
       </c>
       <c r="E26">
-        <v>0.05041834337951143</v>
+        <v>0.04632794973761761</v>
       </c>
       <c r="F26">
-        <v>6.499621372144366</v>
+        <v>6.899621386439326</v>
       </c>
       <c r="K26">
-        <v>7.678610778852558</v>
+        <v>8.307945820928357</v>
       </c>
       <c r="L26">
-        <v>8.646015836886095</v>
+        <v>7.155809811890327</v>
       </c>
       <c r="M26">
-        <v>8.362878581615727</v>
+        <v>8.301896601340717</v>
       </c>
       <c r="N26">
-        <v>0.01284277424943498</v>
+        <v>0.01237634107491342</v>
       </c>
       <c r="O26">
-        <v>0.001143059470036598</v>
+        <v>0.0007728802850194998</v>
       </c>
       <c r="P26">
-        <v>0.01128009433949796</v>
+        <v>0.01128796041390174</v>
       </c>
       <c r="Q26">
-        <v>0.0009219606252812698</v>
+        <v>0.0008862005562204473</v>
       </c>
       <c r="R26">
-        <v>0.001147787484472493</v>
+        <v>0.0009350356287577618</v>
       </c>
       <c r="S26">
-        <v>2.473536788551308E-06</v>
+        <v>2.483400589327232E-06</v>
       </c>
       <c r="T26">
-        <v>0.003061313415342288</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.001017666332647904</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>12.80749603503342</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.0003899454654691577</v>
+        <v>3.359597373900158</v>
       </c>
       <c r="X26">
-        <v>1.616069461057372E-06</v>
+        <v>0.00019673090839811</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2064,61 +2064,61 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.960593420622153E-06</v>
+        <v>5.402908402329864E-06</v>
       </c>
       <c r="C27">
-        <v>0.04781051061490153</v>
+        <v>0.04366251631976365</v>
       </c>
       <c r="D27">
-        <v>0.003653250042226192</v>
+        <v>0.003100681737085005</v>
       </c>
       <c r="E27">
-        <v>0.05106896988355236</v>
+        <v>0.04693296695489592</v>
       </c>
       <c r="F27">
-        <v>6.499604281590956</v>
+        <v>6.899604296730844</v>
       </c>
       <c r="K27">
-        <v>7.67499279680224</v>
+        <v>8.308212721619316</v>
       </c>
       <c r="L27">
-        <v>8.643167148007953</v>
+        <v>7.157228300857986</v>
       </c>
       <c r="M27">
-        <v>8.362306637492663</v>
+        <v>8.302230022475573</v>
       </c>
       <c r="N27">
-        <v>0.01299877044649362</v>
+        <v>0.01253105388544534</v>
       </c>
       <c r="O27">
-        <v>0.001157803702952039</v>
+        <v>0.0007844368606881635</v>
       </c>
       <c r="P27">
-        <v>0.01141820278902085</v>
+        <v>0.01142665054533749</v>
       </c>
       <c r="Q27">
-        <v>0.0009356649996471141</v>
+        <v>0.0008990282971669856</v>
       </c>
       <c r="R27">
-        <v>0.001163058337108279</v>
+        <v>0.0009474696584666742</v>
       </c>
       <c r="S27">
-        <v>2.506614456603616E-06</v>
+        <v>2.512328738803035E-06</v>
       </c>
       <c r="T27">
-        <v>0.003088562043111547</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.00102815347810929</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>12.86895612529326</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.0003957460355907888</v>
+        <v>3.378603421250272</v>
       </c>
       <c r="X27">
-        <v>1.616250360159888E-06</v>
+        <v>0.0001999308232314353</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2126,61 +2126,61 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.947591065442998E-06</v>
+        <v>5.390628113002516E-06</v>
       </c>
       <c r="C28">
-        <v>0.04840723035237011</v>
+        <v>0.04421064921952958</v>
       </c>
       <c r="D28">
-        <v>0.003710057808647881</v>
+        <v>0.003148408806694981</v>
       </c>
       <c r="E28">
-        <v>0.05173687326218868</v>
+        <v>0.04755421996471348</v>
       </c>
       <c r="F28">
-        <v>6.499587062800416</v>
+        <v>6.899587078813087</v>
       </c>
       <c r="K28">
-        <v>7.671343323831959</v>
+        <v>8.308473728974889</v>
       </c>
       <c r="L28">
-        <v>8.640257633159958</v>
+        <v>7.158667995611211</v>
       </c>
       <c r="M28">
-        <v>8.361728046561103</v>
+        <v>8.30255734331811</v>
       </c>
       <c r="N28">
-        <v>0.01315878351059554</v>
+        <v>0.01268979195334747</v>
       </c>
       <c r="O28">
-        <v>0.001172980915494125</v>
+        <v>0.0007963499157842067</v>
       </c>
       <c r="P28">
-        <v>0.01155985870509347</v>
+        <v>0.01156891571085331</v>
       </c>
       <c r="Q28">
-        <v>0.0009497894072964455</v>
+        <v>0.0009122466482860616</v>
       </c>
       <c r="R28">
-        <v>0.001178741468495464</v>
+        <v>0.0009602393521116454</v>
       </c>
       <c r="S28">
-        <v>2.54064610503036E-06</v>
+        <v>2.54210749526536E-06</v>
       </c>
       <c r="T28">
-        <v>0.003116405402098064</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0.001038912178604946</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>12.93144658489107</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.0004017075300072807</v>
+        <v>3.397813177291273</v>
       </c>
       <c r="X28">
-        <v>1.616432833808402E-06</v>
+        <v>0.0002032175143144409</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2188,61 +2188,61 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.934249750942829E-06</v>
+        <v>5.378022529748353E-06</v>
       </c>
       <c r="C29">
-        <v>0.04901952038721562</v>
+        <v>0.04477314566354101</v>
       </c>
       <c r="D29">
-        <v>0.003768675604688516</v>
+        <v>0.003197640931314674</v>
       </c>
       <c r="E29">
-        <v>0.05242274850845259</v>
+        <v>0.04819236874569412</v>
       </c>
       <c r="F29">
-        <v>6.49956971237051</v>
+        <v>6.899569729285128</v>
       </c>
       <c r="K29">
-        <v>7.667672811592228</v>
+        <v>8.308739796877813</v>
       </c>
       <c r="L29">
-        <v>8.637336511181962</v>
+        <v>7.160145931985406</v>
       </c>
       <c r="M29">
-        <v>8.361168563868292</v>
+        <v>8.302894750638718</v>
       </c>
       <c r="N29">
-        <v>0.01332297258724076</v>
+        <v>0.01285271581687573</v>
       </c>
       <c r="O29">
-        <v>0.001188627535632553</v>
+        <v>0.0008086364158922525</v>
       </c>
       <c r="P29">
-        <v>0.01170520212013178</v>
+        <v>0.01171489747883368</v>
       </c>
       <c r="Q29">
-        <v>0.0009643467187032727</v>
+        <v>0.0009258695837078722</v>
       </c>
       <c r="R29">
-        <v>0.00119485380852821</v>
+        <v>0.0009733584924488561</v>
       </c>
       <c r="S29">
-        <v>2.57552302436034E-06</v>
+        <v>2.572677264570354E-06</v>
       </c>
       <c r="T29">
-        <v>0.003144864213378791</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.00104996664443376</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>12.99500501597215</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0.000407838574740624</v>
+        <v>3.417251029875253</v>
       </c>
       <c r="X29">
-        <v>1.616616359420388E-06</v>
+        <v>0.0002065951660126505</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2250,61 +2250,61 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.920556083741471E-06</v>
+        <v>5.365078592233594E-06</v>
       </c>
       <c r="C30">
-        <v>0.04964800434252849</v>
+        <v>0.04535058322926638</v>
       </c>
       <c r="D30">
-        <v>0.003829190797911437</v>
+        <v>0.003248450038737151</v>
       </c>
       <c r="E30">
-        <v>0.05312732809898412</v>
+        <v>0.04884810927675149</v>
       </c>
       <c r="F30">
-        <v>6.499552226754499</v>
+        <v>6.899552244601558</v>
       </c>
       <c r="K30">
-        <v>7.663976699279281</v>
+        <v>8.308980521426601</v>
       </c>
       <c r="L30">
-        <v>8.634380020740156</v>
+        <v>7.161641496203554</v>
       </c>
       <c r="M30">
-        <v>8.360617692310232</v>
+        <v>8.303219258477066</v>
       </c>
       <c r="N30">
-        <v>0.01349150515740199</v>
+        <v>0.01301999469744494</v>
       </c>
       <c r="O30">
-        <v>0.001204758060284904</v>
+        <v>0.0008213134145163597</v>
       </c>
       <c r="P30">
-        <v>0.01185438066737385</v>
+        <v>0.01186474508848821</v>
       </c>
       <c r="Q30">
-        <v>0.0009793599727382478</v>
+        <v>0.0009399214779500184</v>
       </c>
       <c r="R30">
-        <v>0.001211413229160207</v>
+        <v>0.0009868416287708601</v>
       </c>
       <c r="S30">
-        <v>2.611346928623264E-06</v>
+        <v>2.604211350521253E-06</v>
       </c>
       <c r="T30">
-        <v>0.003173960012947472</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.001061323733469666</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>13.05966714747806</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0004141450801955589</v>
+        <v>3.436870825759669</v>
       </c>
       <c r="X30">
-        <v>1.616801165036036E-06</v>
+        <v>0.000210065808908467</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2312,61 +2312,61 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.906495975856163E-06</v>
+        <v>5.351782529982428E-06</v>
       </c>
       <c r="C31">
-        <v>0.05029333974456536</v>
+        <v>0.04594357102068228</v>
       </c>
       <c r="D31">
-        <v>0.003891696416882857</v>
+        <v>0.00330091268449199</v>
       </c>
       <c r="E31">
-        <v>0.05385138456102098</v>
+        <v>0.04952217599653186</v>
       </c>
       <c r="F31">
-        <v>6.499534602253727</v>
+        <v>6.899534621065172</v>
       </c>
       <c r="K31">
-        <v>7.660246116896049</v>
+        <v>8.309234268462486</v>
       </c>
       <c r="L31">
-        <v>8.631370421008693</v>
+        <v>7.163176666584794</v>
       </c>
       <c r="M31">
-        <v>8.360064670007993</v>
+        <v>8.303552309004512</v>
       </c>
       <c r="N31">
-        <v>0.01366455793341772</v>
+        <v>0.01319180710988056</v>
       </c>
       <c r="O31">
-        <v>0.001221388696940323</v>
+        <v>0.0008344005634985951</v>
       </c>
       <c r="P31">
-        <v>0.0120075499729321</v>
+        <v>0.01201861584356621</v>
       </c>
       <c r="Q31">
-        <v>0.0009948545801958678</v>
+        <v>0.0009544177997763864</v>
       </c>
       <c r="R31">
-        <v>0.001228438607783188</v>
+        <v>0.001000704127607766</v>
       </c>
       <c r="S31">
-        <v>2.648228456994771E-06</v>
+        <v>2.636625001853286E-06</v>
       </c>
       <c r="T31">
-        <v>0.003203715453503498</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.001072990966531466</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>13.12546745696453</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.0004206340623533137</v>
+        <v>3.456743843256646</v>
       </c>
       <c r="X31">
-        <v>1.616987694155198E-06</v>
+        <v>0.0002136356155931532</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2374,61 +2374,61 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.892054579758766E-06</v>
+        <v>5.338119823852414E-06</v>
       </c>
       <c r="C32">
-        <v>0.05095622036353226</v>
+        <v>0.04655275185405644</v>
       </c>
       <c r="D32">
-        <v>0.003956291626509604</v>
+        <v>0.003355110422024936</v>
       </c>
       <c r="E32">
-        <v>0.05459573320245823</v>
+        <v>0.05021534447494266</v>
       </c>
       <c r="F32">
-        <v>6.499516835008102</v>
+        <v>6.899516854817403</v>
       </c>
       <c r="K32">
-        <v>7.656492038749476</v>
+        <v>8.309468956603498</v>
       </c>
       <c r="L32">
-        <v>8.628345259805625</v>
+        <v>7.164719488719189</v>
       </c>
       <c r="M32">
-        <v>8.359532734767731</v>
+        <v>8.303860079244576</v>
       </c>
       <c r="N32">
-        <v>0.01384231749393883</v>
+        <v>0.01336834148911459</v>
       </c>
       <c r="O32">
-        <v>0.001238558132269838</v>
+        <v>0.0008479188557112436</v>
       </c>
       <c r="P32">
-        <v>0.01216487419282833</v>
+        <v>0.01217667581562035</v>
       </c>
       <c r="Q32">
-        <v>0.001010847075408257</v>
+        <v>0.0009693903775526175</v>
       </c>
       <c r="R32">
-        <v>0.001245949898916419</v>
+        <v>0.001014962234787851</v>
       </c>
       <c r="S32">
-        <v>2.686069622818156E-06</v>
+        <v>2.670165639191108E-06</v>
       </c>
       <c r="T32">
-        <v>0.003234154374745956</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0.001084993680900798</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>13.19244742490442</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.0004273143926562104</v>
+        <v>3.476821510999049</v>
       </c>
       <c r="X32">
-        <v>1.617175398062526E-06</v>
+        <v>0.0002173069045280755</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2436,61 +2436,61 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.877216258865608E-06</v>
+        <v>5.324075154118883E-06</v>
       </c>
       <c r="C33">
-        <v>0.05163737875102533</v>
+        <v>0.04717880462843371</v>
       </c>
       <c r="D33">
-        <v>0.004023082223489976</v>
+        <v>0.003411130214810185</v>
       </c>
       <c r="E33">
-        <v>0.05536123510459545</v>
+        <v>0.05092843430726209</v>
       </c>
       <c r="F33">
-        <v>6.499498920986615</v>
+        <v>6.899498941828893</v>
       </c>
       <c r="K33">
-        <v>7.65269942101654</v>
+        <v>8.309709402659658</v>
       </c>
       <c r="L33">
-        <v>8.625256266921562</v>
+        <v>7.166307604058606</v>
       </c>
       <c r="M33">
-        <v>8.358994438490852</v>
+        <v>8.304179956980391</v>
       </c>
       <c r="N33">
-        <v>0.01402498067309345</v>
+        <v>0.01354979688959869</v>
       </c>
       <c r="O33">
-        <v>0.001256273580656385</v>
+        <v>0.0008618880075761422</v>
       </c>
       <c r="P33">
-        <v>0.01232652675974746</v>
+        <v>0.01233910024225902</v>
       </c>
       <c r="Q33">
-        <v>0.001027369369642502</v>
+        <v>0.0009848501051552541</v>
       </c>
       <c r="R33">
-        <v>0.001263968215282993</v>
+        <v>0.00102963313434073</v>
       </c>
       <c r="S33">
-        <v>2.725092713626508E-06</v>
+        <v>2.704652835323791E-06</v>
       </c>
       <c r="T33">
-        <v>0.003265301631178494</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0.001097332185573932</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>13.26064348200355</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0.0004341934275520277</v>
+        <v>3.497153057914591</v>
       </c>
       <c r="X33">
-        <v>1.617365028949173E-06</v>
+        <v>0.000221085618560775</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2498,61 +2498,61 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.861964503815498E-06</v>
+        <v>5.309632348763961E-06</v>
       </c>
       <c r="C34">
-        <v>0.05233758899407732</v>
+        <v>0.04782244689922229</v>
       </c>
       <c r="D34">
-        <v>0.0040921812174078</v>
+        <v>0.003469064887070826</v>
       </c>
       <c r="E34">
-        <v>0.05614880032315666</v>
+        <v>0.05166231225586323</v>
       </c>
       <c r="F34">
-        <v>6.499480855977115</v>
+        <v>6.899480877889199</v>
       </c>
       <c r="K34">
-        <v>7.648886906617649</v>
+        <v>8.309931614473106</v>
       </c>
       <c r="L34">
-        <v>8.622149741542851</v>
+        <v>7.167923984988281</v>
       </c>
       <c r="M34">
-        <v>8.358480133545465</v>
+        <v>8.304492545049165</v>
       </c>
       <c r="N34">
-        <v>0.014212755777394</v>
+        <v>0.01373638378492256</v>
       </c>
       <c r="O34">
-        <v>0.001274583356558985</v>
+        <v>0.0008763318770680583</v>
       </c>
       <c r="P34">
-        <v>0.01249269083901371</v>
+        <v>0.01250607450898113</v>
       </c>
       <c r="Q34">
-        <v>0.001044440540305558</v>
+        <v>0.001000827926366032</v>
       </c>
       <c r="R34">
-        <v>0.001282515908261954</v>
+        <v>0.001044735023774633</v>
       </c>
       <c r="S34">
-        <v>2.765155391049113E-06</v>
+        <v>2.740255386823319E-06</v>
       </c>
       <c r="T34">
-        <v>0.003297183534790327</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0.001110037386661092</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>13.33010076510976</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.0004412819564238684</v>
+        <v>3.517704081198751</v>
       </c>
       <c r="X34">
-        <v>1.617555654669117E-06</v>
+        <v>0.0002249750438100168</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2560,61 +2560,61 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.846281891569299E-06</v>
+        <v>5.294774312349846E-06</v>
       </c>
       <c r="C35">
-        <v>0.05305766970716194</v>
+        <v>0.04848443767552305</v>
       </c>
       <c r="D35">
-        <v>0.004163709437058665</v>
+        <v>0.003529013628659553</v>
       </c>
       <c r="E35">
-        <v>0.05695939140088288</v>
+        <v>0.05241789565105393</v>
       </c>
       <c r="F35">
-        <v>6.49946263557532</v>
+        <v>6.899462658595879</v>
       </c>
       <c r="K35">
-        <v>7.64503426028463</v>
+        <v>8.310148232681778</v>
       </c>
       <c r="L35">
-        <v>8.61897927777194</v>
+        <v>7.169569291872657</v>
       </c>
       <c r="M35">
-        <v>8.357960358211619</v>
+        <v>8.304795312756143</v>
       </c>
       <c r="N35">
-        <v>0.01440586282845123</v>
+        <v>0.01392832485817412</v>
       </c>
       <c r="O35">
-        <v>0.001293497098179793</v>
+        <v>0.0008912745334814723</v>
       </c>
       <c r="P35">
-        <v>0.01266356024645711</v>
+        <v>0.01267779460722912</v>
       </c>
       <c r="Q35">
-        <v>0.00106209720853803</v>
+        <v>0.001017350446877738</v>
       </c>
       <c r="R35">
-        <v>0.00130161666576749</v>
+        <v>0.001060287184496839</v>
       </c>
       <c r="S35">
-        <v>2.806507720727039E-06</v>
+        <v>2.777044532253045E-06</v>
       </c>
       <c r="T35">
-        <v>0.003329827507150465</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>0.001123110276645575</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>13.40085950984421</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>0.0004485870277788162</v>
+        <v>3.538502890672838</v>
       </c>
       <c r="X35">
-        <v>1.617748286985768E-06</v>
+        <v>0.0002289808857913641</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -2622,61 +2622,61 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.830150029049622E-06</v>
+        <v>5.27948297021551E-06</v>
       </c>
       <c r="C36">
-        <v>0.053798487287012</v>
+        <v>0.0491655804641119</v>
       </c>
       <c r="D36">
-        <v>0.004237796207424625</v>
+        <v>0.003591082540109409</v>
       </c>
       <c r="E36">
-        <v>0.05779402717131377</v>
+        <v>0.05319615610145395</v>
       </c>
       <c r="F36">
-        <v>6.4994442551726</v>
+        <v>6.899444279342281</v>
       </c>
       <c r="K36">
-        <v>7.641157774140422</v>
+        <v>8.310359816307779</v>
       </c>
       <c r="L36">
-        <v>8.615785646697361</v>
+        <v>7.171238442595462</v>
       </c>
       <c r="M36">
-        <v>8.357462612370469</v>
+        <v>8.305085125702234</v>
       </c>
       <c r="N36">
-        <v>0.01460453503648565</v>
+        <v>0.01412585592369976</v>
       </c>
       <c r="O36">
-        <v>0.001313064105670276</v>
+        <v>0.0009067434927107441</v>
       </c>
       <c r="P36">
-        <v>0.01283933998945589</v>
+        <v>0.01285446800359808</v>
       </c>
       <c r="Q36">
-        <v>0.001080361564210767</v>
+        <v>0.001034448249755635</v>
       </c>
       <c r="R36">
-        <v>0.001321295607556078</v>
+        <v>0.001076310065405393</v>
       </c>
       <c r="S36">
-        <v>2.849027735960977E-06</v>
+        <v>2.815096547070299E-06</v>
       </c>
       <c r="T36">
-        <v>0.003363262616703569</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.001136582389836446</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>13.47296797710576</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.0004561208737119328</v>
+        <v>3.559557997710435</v>
       </c>
       <c r="X36">
-        <v>1.617942111292979E-06</v>
+        <v>0.0002331084958574228</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -2684,61 +2684,61 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.813549465633459E-06</v>
+        <v>5.263739197304483E-06</v>
       </c>
       <c r="C37">
-        <v>0.0545609594574672</v>
+        <v>0.04986672658601963</v>
       </c>
       <c r="D37">
-        <v>0.004314580118086698</v>
+        <v>0.003655385240745065</v>
       </c>
       <c r="E37">
-        <v>0.05865378687331686</v>
+        <v>0.05399812352687297</v>
       </c>
       <c r="F37">
-        <v>6.499425709943291</v>
+        <v>6.899425735304816</v>
       </c>
       <c r="K37">
-        <v>7.63724130916693</v>
+        <v>8.310566723660628</v>
       </c>
       <c r="L37">
-        <v>8.612541573135269</v>
+        <v>7.172960009089651</v>
       </c>
       <c r="M37">
-        <v>8.35697012819791</v>
+        <v>8.305388901162335</v>
       </c>
       <c r="N37">
-        <v>0.01480901920465204</v>
+        <v>0.01432922688417652</v>
       </c>
       <c r="O37">
-        <v>0.001333306212103258</v>
+        <v>0.0009227643158627812</v>
       </c>
       <c r="P37">
-        <v>0.01302024734984428</v>
+        <v>0.0130363144613495</v>
       </c>
       <c r="Q37">
-        <v>0.001099270435969839</v>
+        <v>0.001052140735980097</v>
       </c>
       <c r="R37">
-        <v>0.001341579401091772</v>
+        <v>0.001092825372618598</v>
       </c>
       <c r="S37">
-        <v>2.89289056232085E-06</v>
+        <v>2.854300376702953E-06</v>
       </c>
       <c r="T37">
-        <v>0.003397519235578447</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0.001150463400946364</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>13.54647283081559</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>0.0004638920278323607</v>
+        <v>3.580877797157207</v>
       </c>
       <c r="X37">
-        <v>1.618137934541653E-06</v>
+        <v>0.0002373634782042285</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -2746,61 +2746,61 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.796459640929659E-06</v>
+        <v>5.247522740069814E-06</v>
       </c>
       <c r="C38">
-        <v>0.05534605913464501</v>
+        <v>0.05058877879453953</v>
       </c>
       <c r="D38">
-        <v>0.004394209842396028</v>
+        <v>0.003722043541964638</v>
       </c>
       <c r="E38">
-        <v>0.05953981466402981</v>
+        <v>0.05482489054873973</v>
       </c>
       <c r="F38">
-        <v>6.499406994830473</v>
+        <v>6.899407021428821</v>
       </c>
       <c r="K38">
-        <v>7.633297495615526</v>
+        <v>8.310748322722514</v>
       </c>
       <c r="L38">
-        <v>8.609257516212702</v>
+        <v>7.174684367719266</v>
       </c>
       <c r="M38">
-        <v>8.356492406249288</v>
+        <v>8.305649584640635</v>
       </c>
       <c r="N38">
-        <v>0.01501957722016061</v>
+        <v>0.01453870286180641</v>
       </c>
       <c r="O38">
-        <v>0.001354266577420177</v>
+        <v>0.0009393705976975177</v>
       </c>
       <c r="P38">
-        <v>0.01320651261412356</v>
+        <v>0.01322356717580839</v>
       </c>
       <c r="Q38">
-        <v>0.001118856901973737</v>
+        <v>0.001070480877617684</v>
       </c>
       <c r="R38">
-        <v>0.001362496377818794</v>
+        <v>0.001109856170622378</v>
       </c>
       <c r="S38">
-        <v>2.938101812650454E-06</v>
+        <v>2.895094784404473E-06</v>
       </c>
       <c r="T38">
-        <v>0.003432629482994573</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>0.001164777693486092</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>13.62142492358905</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>0.0004719138237909334</v>
+        <v>3.602435269346394</v>
       </c>
       <c r="X38">
-        <v>1.618335125219224E-06</v>
+        <v>0.0002417505894984836</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2808,61 +2808,61 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.778858789223352E-06</v>
+        <v>5.230812139561246E-06</v>
       </c>
       <c r="C39">
-        <v>0.05615481864722038</v>
+        <v>0.05133269522712008</v>
       </c>
       <c r="D39">
-        <v>0.004476845075481573</v>
+        <v>0.003791188188780575</v>
       </c>
       <c r="E39">
-        <v>0.06045332450236907</v>
+        <v>0.05567761728672576</v>
       </c>
       <c r="F39">
-        <v>6.499388104530839</v>
+        <v>6.899388132413373</v>
       </c>
       <c r="K39">
-        <v>7.629313539854841</v>
+        <v>8.310944937798892</v>
       </c>
       <c r="L39">
-        <v>8.60591395302697</v>
+        <v>7.176488933110513</v>
       </c>
       <c r="M39">
-        <v>8.356020555467794</v>
+        <v>8.305946532704853</v>
       </c>
       <c r="N39">
-        <v>0.01523648691290253</v>
+        <v>0.01475456527869703</v>
       </c>
       <c r="O39">
-        <v>0.001375976425328404</v>
+        <v>0.0009565908115261618</v>
       </c>
       <c r="P39">
-        <v>0.01339838016511007</v>
+        <v>0.01341647330752571</v>
       </c>
       <c r="Q39">
-        <v>0.001139159688655562</v>
+        <v>0.001089475483775246</v>
       </c>
       <c r="R39">
-        <v>0.00138407666791413</v>
+        <v>0.001127426981349965</v>
       </c>
       <c r="S39">
-        <v>2.984793167153315E-06</v>
+        <v>2.937026380274085E-06</v>
       </c>
       <c r="T39">
-        <v>0.003468627130447089</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0.001179541544075779</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>13.6978757564958</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>0.0004801968013396137</v>
+        <v>3.624307403975166</v>
       </c>
       <c r="X39">
-        <v>1.618534323007258E-06</v>
+        <v>0.0002462785697143888</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2870,61 +2870,61 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.760723846523492E-06</v>
+        <v>5.213584625331901E-06</v>
       </c>
       <c r="C40">
-        <v>0.05698833434999036</v>
+        <v>0.05209949372773846</v>
       </c>
       <c r="D40">
-        <v>0.004562657569557589</v>
+        <v>0.00386295969716815</v>
       </c>
       <c r="E40">
-        <v>0.0613956054892691</v>
+        <v>0.0565575365821306</v>
       </c>
       <c r="F40">
-        <v>6.499369033479139</v>
+        <v>6.899369062695767</v>
       </c>
       <c r="K40">
-        <v>7.625291956177231</v>
+        <v>8.311107777449948</v>
       </c>
       <c r="L40">
-        <v>8.602525593868991</v>
+        <v>7.178293057686475</v>
       </c>
       <c r="M40">
-        <v>8.355560932327869</v>
+        <v>8.306197259350618</v>
       </c>
       <c r="N40">
-        <v>0.01546004353366985</v>
+        <v>0.01497711325397398</v>
       </c>
       <c r="O40">
-        <v>0.001398481955651541</v>
+        <v>0.0009744623949555183</v>
       </c>
       <c r="P40">
-        <v>0.01359610952763353</v>
+        <v>0.01361529585307007</v>
       </c>
       <c r="Q40">
-        <v>0.001160217725171321</v>
+        <v>0.00110918938708161</v>
       </c>
       <c r="R40">
-        <v>0.001406352343313275</v>
+        <v>0.00114556391610754</v>
       </c>
       <c r="S40">
-        <v>3.033000366975926E-06</v>
+        <v>2.98071897175632E-06</v>
       </c>
       <c r="T40">
-        <v>0.003505547865711142</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>0.001194780579331993</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>13.7758807549708</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0.0004887537862356525</v>
+        <v>3.646419940231191</v>
       </c>
       <c r="X40">
-        <v>1.618735402191138E-06</v>
+        <v>0.0002509512474184277</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2932,61 +2932,61 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4.742030380845709E-06</v>
+        <v>5.195816037365966E-06</v>
       </c>
       <c r="C41">
-        <v>0.05784777167425976</v>
+        <v>0.05289025658069864</v>
       </c>
       <c r="D41">
-        <v>0.004651832260173608</v>
+        <v>0.003937509261650694</v>
       </c>
       <c r="E41">
-        <v>0.06236802771894236</v>
+        <v>0.05746595972989166</v>
       </c>
       <c r="F41">
-        <v>6.499349775829224</v>
+        <v>6.899349806432604</v>
       </c>
       <c r="K41">
-        <v>7.62123601066287</v>
+        <v>8.311280004178174</v>
       </c>
       <c r="L41">
-        <v>8.599086965085014</v>
+        <v>7.180165846271815</v>
       </c>
       <c r="M41">
-        <v>8.355114513498139</v>
+        <v>8.30647162672342</v>
       </c>
       <c r="N41">
-        <v>0.01569056093658818</v>
+        <v>0.01520666490740052</v>
       </c>
       <c r="O41">
-        <v>0.001421828656074258</v>
+        <v>0.000993021031109081</v>
       </c>
       <c r="P41">
-        <v>0.01379997660636242</v>
+        <v>0.01382031399185677</v>
       </c>
       <c r="Q41">
-        <v>0.001182074555734007</v>
+        <v>0.001129639584880395</v>
       </c>
       <c r="R41">
-        <v>0.001429357578443542</v>
+        <v>0.001164294788191734</v>
       </c>
       <c r="S41">
-        <v>3.082799275076079E-06</v>
+        <v>3.025787918574443E-06</v>
       </c>
       <c r="T41">
-        <v>0.00354342929663539</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>0.001210518850623349</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>13.85549822649862</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0.0004975994475088136</v>
+        <v>3.668855793631742</v>
       </c>
       <c r="X41">
-        <v>1.618938199466856E-06</v>
+        <v>0.0002557784172613047</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -2994,61 +2994,61 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.722752464475176E-06</v>
+        <v>5.177480700694656E-06</v>
       </c>
       <c r="C42">
-        <v>0.05873437066449452</v>
+        <v>0.05370613570268277</v>
       </c>
       <c r="D42">
-        <v>0.004744568565275323</v>
+        <v>0.004014999792553406</v>
       </c>
       <c r="E42">
-        <v>0.06337204863991029</v>
+        <v>0.05840428273142914</v>
       </c>
       <c r="F42">
-        <v>6.49933032543595</v>
+        <v>6.899330357481678</v>
       </c>
       <c r="K42">
-        <v>7.617145191519931</v>
+        <v>8.31143516242172</v>
       </c>
       <c r="L42">
-        <v>8.595616955393856</v>
+        <v>7.182066480482013</v>
       </c>
       <c r="M42">
-        <v>8.354692007496006</v>
+        <v>8.306717457294083</v>
       </c>
       <c r="N42">
-        <v>0.01592837314126341</v>
+        <v>0.01544355897200537</v>
       </c>
       <c r="O42">
-        <v>0.0014460707667749</v>
+        <v>0.001012308007041528</v>
       </c>
       <c r="P42">
-        <v>0.01401027497387289</v>
+        <v>0.01403182523197304</v>
       </c>
       <c r="Q42">
-        <v>0.001204771649712615</v>
+        <v>0.001150886160059221</v>
       </c>
       <c r="R42">
-        <v>0.001453128824763016</v>
+        <v>0.00118364927152962</v>
       </c>
       <c r="S42">
-        <v>3.134204870226488E-06</v>
+        <v>3.072671030006484E-06</v>
       </c>
       <c r="T42">
-        <v>0.003582311137402257</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0.001226787976022601</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>13.93679159492677</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>0.0005067481608762613</v>
+        <v>3.691578578189024</v>
       </c>
       <c r="X42">
-        <v>1.619142740424003E-06</v>
+        <v>0.0002607661000193948</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3056,61 +3056,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.702862568589452E-06</v>
+        <v>5.15855132457743E-06</v>
       </c>
       <c r="C43">
-        <v>0.05964945205600672</v>
+        <v>0.05454835834522733</v>
       </c>
       <c r="D43">
-        <v>0.004841081809034791</v>
+        <v>0.00409560705035512</v>
       </c>
       <c r="E43">
-        <v>0.06440922003820547</v>
+        <v>0.05937399316903139</v>
       </c>
       <c r="F43">
-        <v>6.49931067583332</v>
+        <v>6.899310709380117</v>
       </c>
       <c r="K43">
-        <v>7.613012195598829</v>
+        <v>8.31158500415324</v>
       </c>
       <c r="L43">
-        <v>8.592057273770946</v>
+        <v>7.184029789459347</v>
       </c>
       <c r="M43">
-        <v>8.354265793118143</v>
+        <v>8.306975086773994</v>
       </c>
       <c r="N43">
-        <v>0.01617383589337339</v>
+        <v>0.01568815644598781</v>
       </c>
       <c r="O43">
-        <v>0.00147124125636269</v>
+        <v>0.001032365570976146</v>
       </c>
       <c r="P43">
-        <v>0.01422731740309594</v>
+        <v>0.01425014623319192</v>
       </c>
       <c r="Q43">
-        <v>0.001228369612674452</v>
+        <v>0.001172961645417074</v>
       </c>
       <c r="R43">
-        <v>0.001477705004761199</v>
+        <v>0.001203659044419444</v>
       </c>
       <c r="S43">
-        <v>3.187513574145179E-06</v>
+        <v>3.121184426488328E-06</v>
       </c>
       <c r="T43">
-        <v>0.003622235258781574</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0.001243599542410573</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>14.01982210906457</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>0.0005162145352269799</v>
+        <v>3.714619996672511</v>
       </c>
       <c r="X43">
-        <v>1.619349390220058E-06</v>
+        <v>0.0002659232908355363</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3118,61 +3118,61 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.682331451674645E-06</v>
+        <v>5.138998859816557E-06</v>
       </c>
       <c r="C44">
-        <v>0.06059442395681656</v>
+        <v>0.05541823336755271</v>
       </c>
       <c r="D44">
-        <v>0.004941604813484086</v>
+        <v>0.004179520936415216</v>
       </c>
       <c r="E44">
-        <v>0.06548119570810303</v>
+        <v>0.06037667773080881</v>
       </c>
       <c r="F44">
-        <v>6.499290820212558</v>
+        <v>6.899290855322541</v>
       </c>
       <c r="K44">
-        <v>7.608836873929171</v>
+        <v>8.311723787588647</v>
       </c>
       <c r="L44">
-        <v>8.588462242543104</v>
+        <v>7.186031377803285</v>
       </c>
       <c r="M44">
-        <v>8.353864064844055</v>
+        <v>8.307215770753457</v>
       </c>
       <c r="N44">
-        <v>0.01642732890435633</v>
+        <v>0.01594084249555697</v>
       </c>
       <c r="O44">
-        <v>0.001497414328107961</v>
+        <v>0.001053242281979126</v>
       </c>
       <c r="P44">
-        <v>0.01445143719258597</v>
+        <v>0.01447561493298114</v>
       </c>
       <c r="Q44">
-        <v>0.001252911713112222</v>
+        <v>0.001195926903855496</v>
       </c>
       <c r="R44">
-        <v>0.001503127720126493</v>
+        <v>0.001224357973040012</v>
       </c>
       <c r="S44">
-        <v>3.242624259868077E-06</v>
+        <v>3.171632135600194E-06</v>
       </c>
       <c r="T44">
-        <v>0.003663246219408659</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>0.00126099885888424</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>14.10466008354742</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.0005260155270690484</v>
+        <v>3.737980247783511</v>
       </c>
       <c r="X44">
-        <v>1.619558156303541E-06</v>
+        <v>0.00027125833083662</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3180,61 +3180,61 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.661128019761421E-06</v>
+        <v>5.118792372520491E-06</v>
       </c>
       <c r="C45">
-        <v>0.06157078920494521</v>
+        <v>0.05631715814704635</v>
       </c>
       <c r="D45">
-        <v>0.005046389698939746</v>
+        <v>0.004266946919240309</v>
       </c>
       <c r="E45">
-        <v>0.066589739841178</v>
+        <v>0.06141403049892925</v>
       </c>
       <c r="F45">
-        <v>6.499270751396425</v>
+        <v>6.899270788135353</v>
       </c>
       <c r="K45">
-        <v>7.604623654664541</v>
+        <v>8.311850573340916</v>
       </c>
       <c r="L45">
-        <v>8.584813837351145</v>
+        <v>7.188089933843413</v>
       </c>
       <c r="M45">
-        <v>8.353480315642667</v>
+        <v>8.307452619502111</v>
       </c>
       <c r="N45">
-        <v>0.01668925723025542</v>
+        <v>0.01620202846421623</v>
       </c>
       <c r="O45">
-        <v>0.001524646411987965</v>
+        <v>0.001074986408333389</v>
       </c>
       <c r="P45">
-        <v>0.01468299027117323</v>
+        <v>0.01470859191594826</v>
       </c>
       <c r="Q45">
-        <v>0.001278459729913955</v>
+        <v>0.001219829087921572</v>
       </c>
       <c r="R45">
-        <v>0.001529441493738188</v>
+        <v>0.001245782294810265</v>
       </c>
       <c r="S45">
-        <v>3.299692986493406E-06</v>
+        <v>3.224028940111029E-06</v>
       </c>
       <c r="T45">
-        <v>0.003705390909944175</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0.001279013285806675</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>14.19137815318128</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>0.0005361694998452021</v>
+        <v>3.761668689184628</v>
       </c>
       <c r="X45">
-        <v>1.619768817266773E-06</v>
+        <v>0.0002767805587075614</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3242,61 +3242,61 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.639219184887667E-06</v>
+        <v>5.097898878535567E-06</v>
       </c>
       <c r="C46">
-        <v>0.06258015348183817</v>
+        <v>0.05724662620468574</v>
       </c>
       <c r="D46">
-        <v>0.005155709899664289</v>
+        <v>0.004358107655792483</v>
       </c>
       <c r="E46">
-        <v>0.0677367362686801</v>
+        <v>0.06248786205401794</v>
       </c>
       <c r="F46">
-        <v>6.499250461813004</v>
+        <v>6.899250500250584</v>
       </c>
       <c r="K46">
-        <v>7.600359501043385</v>
+        <v>8.311961000347207</v>
       </c>
       <c r="L46">
-        <v>8.581090669995573</v>
+        <v>7.190190893350501</v>
       </c>
       <c r="M46">
-        <v>8.353104852441875</v>
+        <v>8.307666426362621</v>
       </c>
       <c r="N46">
-        <v>0.0169600538520102</v>
+        <v>0.01647215421521414</v>
       </c>
       <c r="O46">
-        <v>0.00155299437672342</v>
+        <v>0.001097655735803957</v>
       </c>
       <c r="P46">
-        <v>0.01492235688798143</v>
+        <v>0.01494946268073445</v>
       </c>
       <c r="Q46">
-        <v>0.001305079225299512</v>
+        <v>0.00124473624684485</v>
       </c>
       <c r="R46">
-        <v>0.001556694025894469</v>
+        <v>0.001267970835272232</v>
       </c>
       <c r="S46">
-        <v>3.358920822438692E-06</v>
+        <v>3.278636489181006E-06</v>
       </c>
       <c r="T46">
-        <v>0.003748719081803773</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>0.001297671247341923</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>14.28005134636632</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0.0005466945488932681</v>
+        <v>3.785690558180868</v>
       </c>
       <c r="X46">
-        <v>1.619982024947831E-06</v>
+        <v>0.0002824997189782411</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3304,61 +3304,61 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.616569691709316E-06</v>
+        <v>5.076283187392304E-06</v>
       </c>
       <c r="C47">
-        <v>0.06362423427424133</v>
+        <v>0.05820823563284743</v>
       </c>
       <c r="D47">
-        <v>0.005269862452005231</v>
+        <v>0.004453244798176208</v>
       </c>
       <c r="E47">
-        <v>0.0689241985990599</v>
+        <v>0.06360010952429897</v>
       </c>
       <c r="F47">
-        <v>6.499229943465267</v>
+        <v>6.899229983675407</v>
       </c>
       <c r="K47">
-        <v>7.596058991469189</v>
+        <v>8.312064456412546</v>
       </c>
       <c r="L47">
-        <v>8.577318239181892</v>
+        <v>7.192361137008077</v>
       </c>
       <c r="M47">
-        <v>8.352754266603656</v>
+        <v>8.307889533294116</v>
       </c>
       <c r="N47">
-        <v>0.01724018220610632</v>
+        <v>0.01675169055120342</v>
       </c>
       <c r="O47">
-        <v>0.001582542353305401</v>
+        <v>0.00112130647396433</v>
       </c>
       <c r="P47">
-        <v>0.01516994375457564</v>
+        <v>0.01519863952498699</v>
       </c>
       <c r="Q47">
-        <v>0.001332835044099227</v>
+        <v>0.001270697233749404</v>
       </c>
       <c r="R47">
-        <v>0.001584936482350324</v>
+        <v>0.001290965238886469</v>
       </c>
       <c r="S47">
-        <v>3.420307317461172E-06</v>
+        <v>3.33534430853206E-06</v>
       </c>
       <c r="T47">
-        <v>0.003793283587884898</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0.001317018230397994</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>14.37076202201284</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0.0005576126692922926</v>
+        <v>3.8100732059991</v>
       </c>
       <c r="X47">
-        <v>1.62019705042654E-06</v>
+        <v>0.00028842715864548</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3366,61 +3366,61 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5.543929512109243E-06</v>
+        <v>5.912467524637226E-06</v>
       </c>
       <c r="C48">
-        <v>0.06470487078946793</v>
+        <v>0.05920369842608209</v>
       </c>
       <c r="D48">
-        <v>0.00439872553041856</v>
+        <v>0.003803249976493422</v>
       </c>
       <c r="E48">
-        <v>0.06820360330058037</v>
+        <v>0.06263787052619163</v>
       </c>
       <c r="F48">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K48">
-        <v>7.591704756868945</v>
+        <v>8.312157373881869</v>
       </c>
       <c r="L48">
-        <v>8.584520553164896</v>
+        <v>7.133891409943468</v>
       </c>
       <c r="M48">
-        <v>8.330646135518709</v>
+        <v>8.308377865773524</v>
       </c>
       <c r="N48">
-        <v>0.01753013849967671</v>
+        <v>0.01704114210818932</v>
       </c>
       <c r="O48">
-        <v>0.001365376264582233</v>
+        <v>0.0009567624746858827</v>
       </c>
       <c r="P48">
-        <v>0.01542618650847336</v>
+        <v>0.01545656438223213</v>
       </c>
       <c r="Q48">
-        <v>0.001140530365711035</v>
+        <v>0.001103868678129489</v>
       </c>
       <c r="R48">
-        <v>0.001614223818925006</v>
+        <v>0.001314810236934209</v>
       </c>
       <c r="S48">
-        <v>3.075839185344085E-06</v>
+        <v>2.85315445794076E-06</v>
       </c>
       <c r="T48">
-        <v>0.003839140353764285</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>0.001167738950853462</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>14.41311156282975</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>0.0005689467972513234</v>
+        <v>3.834824181802844</v>
       </c>
       <c r="X48">
-        <v>1.620414762156553E-06</v>
+        <v>0.0002945754712602216</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -3428,61 +3428,61 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5.519802444108908E-06</v>
+        <v>5.889826736317062E-06</v>
       </c>
       <c r="C49">
-        <v>0.06584272258680848</v>
+        <v>0.060248989906263</v>
       </c>
       <c r="D49">
-        <v>0.004497161327949843</v>
+        <v>0.003887075360403976</v>
       </c>
       <c r="E49">
-        <v>0.06944598940113041</v>
+        <v>0.06378817526565417</v>
       </c>
       <c r="F49">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K49">
-        <v>7.587563723816744</v>
+        <v>8.31211451949325</v>
       </c>
       <c r="L49">
-        <v>8.573235496366078</v>
+        <v>7.136996880772679</v>
       </c>
       <c r="M49">
-        <v>8.326571172269604</v>
+        <v>8.308338811314856</v>
       </c>
       <c r="N49">
-        <v>0.01783513401354641</v>
+        <v>0.01734462096919882</v>
       </c>
       <c r="O49">
-        <v>0.001389984534093377</v>
+        <v>0.000978651194141754</v>
       </c>
       <c r="P49">
-        <v>0.01569572719041227</v>
+        <v>0.01572736996155482</v>
       </c>
       <c r="Q49">
-        <v>0.001167138143176943</v>
+        <v>0.001127941663146457</v>
       </c>
       <c r="R49">
-        <v>0.00164462283741066</v>
+        <v>0.001339564144150742</v>
       </c>
       <c r="S49">
-        <v>3.175848382705762E-06</v>
+        <v>2.903707957525643E-06</v>
       </c>
       <c r="T49">
-        <v>0.003889544153819206</v>
+        <v>0</v>
       </c>
       <c r="U49">
-        <v>0.001183800399826671</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>14.45838480947853</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0.0005807402919470737</v>
+        <v>3.859624133722164</v>
       </c>
       <c r="X49">
-        <v>1.620621813809163E-06</v>
+        <v>0.0003009480735417946</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -3490,61 +3490,61 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.494798865330843E-06</v>
+        <v>5.866352592144403E-06</v>
       </c>
       <c r="C50">
-        <v>0.06702244491870959</v>
+        <v>0.06133287287829876</v>
       </c>
       <c r="D50">
-        <v>0.004600126140432722</v>
+        <v>0.003974701956415222</v>
       </c>
       <c r="E50">
-        <v>0.07073504999398708</v>
+        <v>0.06498203614013547</v>
       </c>
       <c r="F50">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K50">
-        <v>7.583412778652035</v>
+        <v>8.31205364921377</v>
       </c>
       <c r="L50">
-        <v>8.568967918893698</v>
+        <v>7.138973255093335</v>
       </c>
       <c r="M50">
-        <v>8.32607166664207</v>
+        <v>8.308398383160924</v>
       </c>
       <c r="N50">
-        <v>0.01815138688815128</v>
+        <v>0.01765935115718069</v>
       </c>
       <c r="O50">
-        <v>0.001417184678405415</v>
+        <v>0.001000415103739422</v>
       </c>
       <c r="P50">
-        <v>0.01597512313362833</v>
+        <v>0.01600812819806267</v>
       </c>
       <c r="Q50">
-        <v>0.001192757345900934</v>
+        <v>0.00115223011832713</v>
       </c>
       <c r="R50">
-        <v>0.001676189125661198</v>
+        <v>0.001365269152539073</v>
       </c>
       <c r="S50">
-        <v>3.235997426562143E-06</v>
+        <v>2.95564954509937E-06</v>
       </c>
       <c r="T50">
-        <v>0.003941577687549832</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>0.001202675070219149</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>14.50720716864919</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>0.0005930023739528863</v>
+        <v>3.884804943005022</v>
       </c>
       <c r="X50">
-        <v>1.620829361067398E-06</v>
+        <v>0.0003075656724624765</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -3552,61 +3552,61 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.468870422061388E-06</v>
+        <v>5.841998420632018E-06</v>
       </c>
       <c r="C51">
-        <v>0.06824641195357778</v>
+        <v>0.06245754289637491</v>
       </c>
       <c r="D51">
-        <v>0.004707937522261195</v>
+        <v>0.00406639265871663</v>
       </c>
       <c r="E51">
-        <v>0.07207345365100853</v>
+        <v>0.0662219643224848</v>
       </c>
       <c r="F51">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K51">
-        <v>7.579209263589138</v>
+        <v>8.311981753322366</v>
       </c>
       <c r="L51">
-        <v>8.564628805224341</v>
+        <v>7.141029275751055</v>
       </c>
       <c r="M51">
-        <v>8.3255528255523</v>
+        <v>8.30845847853301</v>
       </c>
       <c r="N51">
-        <v>0.01847950850010708</v>
+        <v>0.01798599696215013</v>
       </c>
       <c r="O51">
-        <v>0.001445623690338171</v>
+        <v>0.001023187907902721</v>
       </c>
       <c r="P51">
-        <v>0.01626497344319161</v>
+        <v>0.01629942031727317</v>
       </c>
       <c r="Q51">
-        <v>0.001219561394103585</v>
+        <v>0.001177617306937435</v>
       </c>
       <c r="R51">
-        <v>0.001708992128175603</v>
+        <v>0.001391981182009543</v>
       </c>
       <c r="S51">
-        <v>3.298925521948777E-06</v>
+        <v>3.009752689003209E-06</v>
       </c>
       <c r="T51">
-        <v>0.003995281660438669</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>0.001222281066931615</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>14.55957062585178</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0.0006057553544010669</v>
+        <v>3.910392668277602</v>
       </c>
       <c r="X51">
-        <v>1.621039536820543E-06</v>
+        <v>0.0003144430512303657</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -3614,61 +3614,61 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.441965171875047E-06</v>
+        <v>5.816714021612858E-06</v>
       </c>
       <c r="C52">
-        <v>0.0695171814422041</v>
+        <v>0.06362536590112808</v>
       </c>
       <c r="D52">
-        <v>0.004820943171701695</v>
+        <v>0.004162434994864934</v>
       </c>
       <c r="E52">
-        <v>0.07346407461071125</v>
+        <v>0.06751066628393587</v>
       </c>
       <c r="F52">
-        <v>7.509229943465267</v>
+        <v>7.799229983675407</v>
       </c>
       <c r="K52">
-        <v>7.574958304304415</v>
+        <v>8.311880893165872</v>
       </c>
       <c r="L52">
-        <v>8.560218379022951</v>
+        <v>7.143126419181297</v>
       </c>
       <c r="M52">
-        <v>8.325055614012895</v>
+        <v>8.308483206008912</v>
       </c>
       <c r="N52">
-        <v>0.01882018619630246</v>
+        <v>0.01832525314323508</v>
       </c>
       <c r="O52">
-        <v>0.001475367349456471</v>
+        <v>0.00104703656167911</v>
       </c>
       <c r="P52">
-        <v>0.01656588168417338</v>
+        <v>0.01660185637747989</v>
       </c>
       <c r="Q52">
-        <v>0.001247606721332115</v>
+        <v>0.001204190241871302</v>
       </c>
       <c r="R52">
-        <v>0.001743105992228676</v>
+        <v>0.001419760610595954</v>
       </c>
       <c r="S52">
-        <v>3.364382860794616E-06</v>
+        <v>3.066409332672476E-06</v>
       </c>
       <c r="T52">
-        <v>0.00405074167230881</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>0.001242689651772023</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>14.61548737261896</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>0.0006190297019973497</v>
+        <v>3.936372804362705</v>
       </c>
       <c r="X52">
-        <v>1.621252084784779E-06</v>
+        <v>0.0003215944199748809</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -3676,61 +3676,61 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5.41334801036646E-06</v>
+        <v>5.789762973000986E-06</v>
       </c>
       <c r="C53">
-        <v>0.07083751283547966</v>
+        <v>0.06483889510329671</v>
       </c>
       <c r="D53">
-        <v>0.00494006655465269</v>
+        <v>0.004263583353224108</v>
       </c>
       <c r="E53">
-        <v>0.07490945288303323</v>
+        <v>0.06885054575720195</v>
       </c>
       <c r="F53">
-        <v>7.508466574526852</v>
+        <v>7.798466659496716</v>
       </c>
       <c r="K53">
-        <v>7.570653934666839</v>
+        <v>8.311776465081776</v>
       </c>
       <c r="L53">
-        <v>8.555677164161924</v>
+        <v>7.145353656120395</v>
       </c>
       <c r="M53">
-        <v>8.324568244526541</v>
+        <v>8.308516088603605</v>
       </c>
       <c r="N53">
-        <v>0.01917416209113605</v>
+        <v>0.01867786980816479</v>
       </c>
       <c r="O53">
-        <v>0.001506622438057137</v>
+        <v>0.001072147039501754</v>
       </c>
       <c r="P53">
-        <v>0.01687849954055789</v>
+        <v>0.01691609446188006</v>
       </c>
       <c r="Q53">
-        <v>0.001277111728156706</v>
+        <v>0.001232123906691039</v>
       </c>
       <c r="R53">
-        <v>0.001778610923032102</v>
+        <v>0.001448672737152348</v>
       </c>
       <c r="S53">
-        <v>3.433040914288871E-06</v>
+        <v>3.125807561082114E-06</v>
       </c>
       <c r="T53">
-        <v>0.004108048856401398</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>0.001264030302115362</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>14.67500354935587</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0.0006328570020452432</v>
+        <v>3.962805737781721</v>
       </c>
       <c r="X53">
-        <v>1.621467303266658E-06</v>
+        <v>0.0003290386006935695</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -3738,61 +3738,61 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.384301477866233E-06</v>
+        <v>5.762435710513556E-06</v>
       </c>
       <c r="C54">
-        <v>0.07221037629966356</v>
+        <v>0.06610088076475655</v>
       </c>
       <c r="D54">
-        <v>0.005064671256404305</v>
+        <v>0.004369327583593862</v>
       </c>
       <c r="E54">
-        <v>0.07641400911816343</v>
+        <v>0.07024575170351323</v>
       </c>
       <c r="F54">
-        <v>7.50844755404635</v>
+        <v>7.798447641090766</v>
       </c>
       <c r="K54">
-        <v>7.56630236459451</v>
+        <v>8.311647631040389</v>
       </c>
       <c r="L54">
-        <v>8.551119337458406</v>
+        <v>7.147603939951502</v>
       </c>
       <c r="M54">
-        <v>8.324115214563795</v>
+        <v>8.308527344574291</v>
       </c>
       <c r="N54">
-        <v>0.01954223583390853</v>
+        <v>0.0190446556991786</v>
       </c>
       <c r="O54">
-        <v>0.001539266645914143</v>
+        <v>0.001098388840202503</v>
       </c>
       <c r="P54">
-        <v>0.01720352845331625</v>
+        <v>0.0172428438484465</v>
       </c>
       <c r="Q54">
-        <v>0.001307923057846062</v>
+        <v>0.001261307025189955</v>
       </c>
       <c r="R54">
-        <v>0.001815593795576223</v>
+        <v>0.001478788298185499</v>
       </c>
       <c r="S54">
-        <v>3.504104638705271E-06</v>
+        <v>3.187695190204548E-06</v>
       </c>
       <c r="T54">
-        <v>0.004167299242949024</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>0.001286205820458991</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>14.73813611918785</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>0.0006472734268286359</v>
+        <v>3.989674989376795</v>
       </c>
       <c r="X54">
-        <v>1.621684881770275E-06</v>
+        <v>0.00033679256053912</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -3800,61 +3800,61 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.354097275446502E-06</v>
+        <v>5.734002922931285E-06</v>
       </c>
       <c r="C55">
-        <v>0.07363900832186057</v>
+        <v>0.06741431806648342</v>
       </c>
       <c r="D55">
-        <v>0.005195734924325381</v>
+        <v>0.004480466621517859</v>
       </c>
       <c r="E55">
-        <v>0.07798084796009921</v>
+        <v>0.07169922304192464</v>
       </c>
       <c r="F55">
-        <v>7.50842826788843</v>
+        <v>7.798428357112254</v>
       </c>
       <c r="K55">
-        <v>7.561895230168785</v>
+        <v>8.311487996396341</v>
       </c>
       <c r="L55">
-        <v>8.546460624249617</v>
+        <v>7.149911379464809</v>
       </c>
       <c r="M55">
-        <v>8.323678437647144</v>
+        <v>8.308505227827869</v>
       </c>
       <c r="N55">
-        <v>0.01992527773152543</v>
+        <v>0.0194264911642632</v>
       </c>
       <c r="O55">
-        <v>0.00157351610263573</v>
+        <v>0.001125962726463664</v>
       </c>
       <c r="P55">
-        <v>0.01754173282343264</v>
+        <v>0.01758287654681366</v>
       </c>
       <c r="Q55">
-        <v>0.001340274641481045</v>
+        <v>0.00129195050389065</v>
       </c>
       <c r="R55">
-        <v>0.001854148895383404</v>
+        <v>0.001510184055696037</v>
       </c>
       <c r="S55">
-        <v>3.578336850501389E-06</v>
+        <v>3.252671507305541E-06</v>
       </c>
       <c r="T55">
-        <v>0.004228599103002003</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>0.001309348282579652</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>14.80493505748481</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0.0006623158222077855</v>
+        <v>4.01698921328213</v>
       </c>
       <c r="X55">
-        <v>1.621905238491561E-06</v>
+        <v>0.0003448755563458998</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -3862,61 +3862,61 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.322665475517454E-06</v>
+        <v>5.704396641667816E-06</v>
       </c>
       <c r="C56">
-        <v>0.07512690556963308</v>
+        <v>0.06878244527180877</v>
       </c>
       <c r="D56">
-        <v>0.005333768061140393</v>
+        <v>0.004597420538061163</v>
       </c>
       <c r="E56">
-        <v>0.07961389133023941</v>
+        <v>0.07321466354604322</v>
       </c>
       <c r="F56">
-        <v>7.508408704366672</v>
+        <v>7.798408795882336</v>
       </c>
       <c r="K56">
-        <v>7.557428475470095</v>
+        <v>8.311317594046084</v>
       </c>
       <c r="L56">
-        <v>8.541696986518099</v>
+        <v>7.152316127902941</v>
       </c>
       <c r="M56">
-        <v>8.323256280740456</v>
+        <v>8.308480355231927</v>
       </c>
       <c r="N56">
-        <v>0.02032422907128391</v>
+        <v>0.01982432873899797</v>
       </c>
       <c r="O56">
-        <v>0.001609489607567943</v>
+        <v>0.001154970694817747</v>
       </c>
       <c r="P56">
-        <v>0.01789393843608376</v>
+        <v>0.01793702711296416</v>
       </c>
       <c r="Q56">
-        <v>0.001374285483390062</v>
+        <v>0.001324152406537796</v>
       </c>
       <c r="R56">
-        <v>0.00189437869013412</v>
+        <v>0.001542943433613184</v>
       </c>
       <c r="S56">
-        <v>3.655976301351011E-06</v>
+        <v>3.320729674773348E-06</v>
       </c>
       <c r="T56">
-        <v>0.004292061077359011</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>0.001333522841736541</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>14.87546330254091</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>0.0006780249549615957</v>
+        <v>4.044801834471492</v>
       </c>
       <c r="X56">
-        <v>1.622128576226495E-06</v>
+        <v>0.0003533104575784011</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -3924,61 +3924,61 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.289930531340313E-06</v>
+        <v>5.673543296982662E-06</v>
       </c>
       <c r="C57">
-        <v>0.07667786418093293</v>
+        <v>0.07020877915478094</v>
       </c>
       <c r="D57">
-        <v>0.00547933581447957</v>
+        <v>0.004720653753559681</v>
       </c>
       <c r="E57">
-        <v>0.08131739394237575</v>
+        <v>0.07479609451987203</v>
       </c>
       <c r="F57">
-        <v>7.508388850986997</v>
+        <v>7.7983889449153</v>
       </c>
       <c r="K57">
-        <v>7.552904331985409</v>
+        <v>8.311123049686273</v>
       </c>
       <c r="L57">
-        <v>8.536858487807059</v>
+        <v>7.154806478104571</v>
       </c>
       <c r="M57">
-        <v>8.32286947113421</v>
+        <v>8.308441972023337</v>
       </c>
       <c r="N57">
-        <v>0.0207401121704776</v>
+        <v>0.02023920336220198</v>
       </c>
       <c r="O57">
-        <v>0.001647337015879247</v>
+        <v>0.001185526922835666</v>
       </c>
       <c r="P57">
-        <v>0.01826104183503251</v>
+        <v>0.0183062021064403</v>
       </c>
       <c r="Q57">
-        <v>0.001410077548616807</v>
+        <v>0.001358038796803229</v>
       </c>
       <c r="R57">
-        <v>0.001936394750441515</v>
+        <v>0.001577157271478482</v>
       </c>
       <c r="S57">
-        <v>3.737108132268922E-06</v>
+        <v>3.39218160850359E-06</v>
       </c>
       <c r="T57">
-        <v>0.004357806371483955</v>
+        <v>0</v>
       </c>
       <c r="U57">
-        <v>0.00135881545412741</v>
+        <v>0</v>
       </c>
       <c r="V57">
-        <v>14.9498008029916</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>0.0006944468334081803</v>
+        <v>4.073113325872569</v>
       </c>
       <c r="X57">
-        <v>1.622354783400729E-06</v>
+        <v>0.0003621200063604251</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -3986,61 +3986,61 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5.255810667147105E-06</v>
+        <v>5.641363126868787E-06</v>
       </c>
       <c r="C58">
-        <v>0.07829601255289778</v>
+        <v>0.07169714564117233</v>
       </c>
       <c r="D58">
-        <v>0.005633065456007187</v>
+        <v>0.004850681004412912</v>
       </c>
       <c r="E58">
-        <v>0.08309597888463215</v>
+        <v>0.07644788916374796</v>
       </c>
       <c r="F58">
-        <v>7.508368694371739</v>
+        <v>7.798368790842609</v>
       </c>
       <c r="K58">
-        <v>7.548318256255222</v>
+        <v>8.310903277783419</v>
       </c>
       <c r="L58">
-        <v>8.53190849715577</v>
+        <v>7.157384405944155</v>
       </c>
       <c r="M58">
-        <v>8.322502302841583</v>
+        <v>8.308376356850721</v>
       </c>
       <c r="N58">
-        <v>0.02117403887853665</v>
+        <v>0.02067224146309667</v>
       </c>
       <c r="O58">
-        <v>0.001687196154535384</v>
+        <v>0.001217758642967762</v>
       </c>
       <c r="P58">
-        <v>0.01864401829608741</v>
+        <v>0.01869138763620478</v>
       </c>
       <c r="Q58">
-        <v>0.001447804545219899</v>
+        <v>0.001393751134407181</v>
       </c>
       <c r="R58">
-        <v>0.001980318787766725</v>
+        <v>0.001612924659884618</v>
       </c>
       <c r="S58">
-        <v>3.822151078887052E-06</v>
+        <v>3.46740155890336E-06</v>
       </c>
       <c r="T58">
-        <v>0.004425965255969331</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0.001385296013639886</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>15.02803907744979</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0.0007116294644720991</v>
+        <v>4.101943230639257</v>
       </c>
       <c r="X58">
-        <v>1.622584087187239E-06</v>
+        <v>0.0003713291618785354</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4048,61 +4048,61 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.22021729993038E-06</v>
+        <v>5.607769570775837E-06</v>
       </c>
       <c r="C59">
-        <v>0.07998584853189523</v>
+        <v>0.07325171458621325</v>
       </c>
       <c r="D59">
-        <v>0.00579565501044623</v>
+        <v>0.004988074246654571</v>
       </c>
       <c r="E59">
-        <v>0.08495467790411343</v>
+        <v>0.0781748114972043</v>
       </c>
       <c r="F59">
-        <v>7.508348220173856</v>
+        <v>7.798348319327251</v>
       </c>
       <c r="K59">
-        <v>7.543667196933565</v>
+        <v>8.310661453599968</v>
       </c>
       <c r="L59">
-        <v>8.526849080071887</v>
+        <v>7.1600609960212</v>
       </c>
       <c r="M59">
-        <v>8.322159934966976</v>
+        <v>8.308294605876931</v>
       </c>
       <c r="N59">
-        <v>0.02162722126746691</v>
+        <v>0.02112467129612293</v>
       </c>
       <c r="O59">
-        <v>0.001729235311509494</v>
+        <v>0.001251805877831926</v>
       </c>
       <c r="P59">
-        <v>0.01904393024378201</v>
+        <v>0.01909365825252566</v>
       </c>
       <c r="Q59">
-        <v>0.001487625465634009</v>
+        <v>0.001431434581513891</v>
       </c>
       <c r="R59">
-        <v>0.002026283825829233</v>
+        <v>0.001650353898450332</v>
       </c>
       <c r="S59">
-        <v>3.91137865324905E-06</v>
+        <v>3.546598967133881E-06</v>
       </c>
       <c r="T59">
-        <v>0.004496678494163039</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0.001413055739926036</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>15.11028536873692</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0.0007296264698559299</v>
+        <v>4.131323013167837</v>
       </c>
       <c r="X59">
-        <v>1.622816640153322E-06</v>
+        <v>0.0003809665982292065</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4110,61 +4110,61 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.18305430324675E-06</v>
+        <v>5.572668489841911E-06</v>
       </c>
       <c r="C60">
-        <v>0.08175228171097734</v>
+        <v>0.07487703935620273</v>
       </c>
       <c r="D60">
-        <v>0.005967883438333271</v>
+        <v>0.005133470796432026</v>
       </c>
       <c r="E60">
-        <v>0.08689897693997711</v>
+        <v>0.07998206041129446</v>
       </c>
       <c r="F60">
-        <v>7.50832741298186</v>
+        <v>7.798327514968859</v>
       </c>
       <c r="K60">
-        <v>7.538946705580831</v>
+        <v>8.31039073611157</v>
       </c>
       <c r="L60">
-        <v>8.521671221716165</v>
+        <v>7.162843640609205</v>
       </c>
       <c r="M60">
-        <v>8.321843695833788</v>
+        <v>8.308189147382492</v>
       </c>
       <c r="N60">
-        <v>0.02210098283784685</v>
+        <v>0.02159783475846318</v>
       </c>
       <c r="O60">
-        <v>0.001773638904874274</v>
+        <v>0.001287826135029723</v>
       </c>
       <c r="P60">
-        <v>0.01946193750040457</v>
+        <v>0.01951418738754974</v>
       </c>
       <c r="Q60">
-        <v>0.001529719478495121</v>
+        <v>0.00147126017164612</v>
       </c>
       <c r="R60">
-        <v>0.002074435550761994</v>
+        <v>0.001689563596057074</v>
       </c>
       <c r="S60">
-        <v>4.005129164368148E-06</v>
+        <v>3.630157416704926E-06</v>
       </c>
       <c r="T60">
-        <v>0.004570098083549633</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>0.001442192674304891</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>15.19666293129538</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>0.0007484965080685073</v>
+        <v>4.161268647229114</v>
       </c>
       <c r="X60">
-        <v>1.623052664720958E-06</v>
+        <v>0.0003910625028551931</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4172,61 +4172,61 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.144217208476244E-06</v>
+        <v>5.535957361639265E-06</v>
       </c>
       <c r="C61">
-        <v>0.08360068166884671</v>
+        <v>0.07657810200400202</v>
       </c>
       <c r="D61">
-        <v>0.00615062258199721</v>
+        <v>0.005287582826194214</v>
       </c>
       <c r="E61">
-        <v>0.08893486781787539</v>
+        <v>0.08187531980146165</v>
       </c>
       <c r="F61">
-        <v>7.508306256212293</v>
+        <v>7.79830636119623</v>
       </c>
       <c r="K61">
-        <v>7.534157202076448</v>
+        <v>8.310098405685192</v>
       </c>
       <c r="L61">
-        <v>8.516396687106953</v>
+        <v>7.16574439469937</v>
       </c>
       <c r="M61">
-        <v>8.321568360528127</v>
+        <v>8.308067078522345</v>
       </c>
       <c r="N61">
-        <v>0.02259677171426081</v>
+        <v>0.02209320082244937</v>
       </c>
       <c r="O61">
-        <v>0.001820624084007383</v>
+        <v>0.001325992912699552</v>
       </c>
       <c r="P61">
-        <v>0.01989930867167066</v>
+        <v>0.01995425878305959</v>
       </c>
       <c r="Q61">
-        <v>0.001574280993505623</v>
+        <v>0.001513409606011054</v>
       </c>
       <c r="R61">
-        <v>0.00212493385372779</v>
+        <v>0.001730683923828791</v>
       </c>
       <c r="S61">
-        <v>4.103655672998608E-06</v>
+        <v>3.718383878678113E-06</v>
       </c>
       <c r="T61">
-        <v>0.004646388459384871</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>0.001472823977979261</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>15.28731416169825</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>0.0007683042102748075</v>
+        <v>4.191819782988802</v>
       </c>
       <c r="X61">
-        <v>1.623292139896178E-06</v>
+        <v>0.00040165091328478</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4234,61 +4234,61 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5.103592347413684E-06</v>
+        <v>5.497524365530123E-06</v>
       </c>
       <c r="C62">
-        <v>0.08553693314601794</v>
+        <v>0.07836036498344721</v>
       </c>
       <c r="D62">
-        <v>0.006344851224456519</v>
+        <v>0.005451208553832024</v>
       </c>
       <c r="E62">
-        <v>0.09106890709733627</v>
+        <v>0.08386081568695025</v>
       </c>
       <c r="F62">
-        <v>7.50828473198623</v>
+        <v>7.798284840144077</v>
       </c>
       <c r="K62">
-        <v>7.529295234170351</v>
+        <v>8.309775032852288</v>
       </c>
       <c r="L62">
-        <v>8.510995584100446</v>
+        <v>7.168774083934518</v>
       </c>
       <c r="M62">
-        <v>8.321324538019404</v>
+        <v>8.307924547853426</v>
       </c>
       <c r="N62">
-        <v>0.02311617540501715</v>
+        <v>0.02261238102019311</v>
       </c>
       <c r="O62">
-        <v>0.001870413448439739</v>
+        <v>0.001366502646310856</v>
       </c>
       <c r="P62">
-        <v>0.02035743436362479</v>
+        <v>0.0204152800124858</v>
       </c>
       <c r="Q62">
-        <v>0.001621540353082333</v>
+        <v>0.001558093285659055</v>
       </c>
       <c r="R62">
-        <v>0.00217795460867916</v>
+        <v>0.001773858062327544</v>
       </c>
       <c r="S62">
-        <v>4.207479769492903E-06</v>
+        <v>3.811716038608233E-06</v>
       </c>
       <c r="T62">
-        <v>0.004725727571420011</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>0.001505062490409496</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>15.38239803696758</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>0.0007891206522268774</v>
+        <v>4.222991011001518</v>
       </c>
       <c r="X62">
-        <v>1.623535238291482E-06</v>
+        <v>0.000412767835758961</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -4296,61 +4296,61 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.061055806522589E-06</v>
+        <v>5.457247322290533E-06</v>
       </c>
       <c r="C63">
-        <v>0.08756749934913491</v>
+        <v>0.08022983053292454</v>
       </c>
       <c r="D63">
-        <v>0.006551671844521006</v>
+        <v>0.005625245504302217</v>
       </c>
       <c r="E63">
-        <v>0.09330828312433158</v>
+        <v>0.0859453814686668</v>
       </c>
       <c r="F63">
-        <v>7.508262820993683</v>
+        <v>7.798262932517425</v>
       </c>
       <c r="K63">
-        <v>7.524349221949976</v>
+        <v>8.309421334093248</v>
       </c>
       <c r="L63">
-        <v>8.505440128984699</v>
+        <v>7.17192566336303</v>
       </c>
       <c r="M63">
-        <v>8.321105791103687</v>
+        <v>8.307750401621963</v>
       </c>
       <c r="N63">
-        <v>0.02366093853210888</v>
+        <v>0.02315714713234394</v>
       </c>
       <c r="O63">
-        <v>0.001923259505997149</v>
+        <v>0.001409577365797466</v>
       </c>
       <c r="P63">
-        <v>0.02083784190235664</v>
+        <v>0.02089879762086598</v>
       </c>
       <c r="Q63">
-        <v>0.001671754369501087</v>
+        <v>0.001605551981851888</v>
       </c>
       <c r="R63">
-        <v>0.002233691714548639</v>
+        <v>0.001819243866078542</v>
       </c>
       <c r="S63">
-        <v>4.31716057037991E-06</v>
+        <v>3.910711221842113E-06</v>
       </c>
       <c r="T63">
-        <v>0.004808308727343357</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0.001539036569425798</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>15.4820922843427</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0.0008110221943360093</v>
+        <v>4.254817572540166</v>
       </c>
       <c r="X63">
-        <v>1.623782538902501E-06</v>
+        <v>0.0004244544946188271</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -4358,61 +4358,61 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.016472353906951E-06</v>
+        <v>5.414992504689828E-06</v>
       </c>
       <c r="C64">
-        <v>0.08969949480978265</v>
+        <v>0.08219310908630933</v>
       </c>
       <c r="D64">
-        <v>0.006772330461277802</v>
+        <v>0.005810706262621299</v>
       </c>
       <c r="E64">
-        <v>0.09566089281219882</v>
+        <v>0.08813653268608698</v>
       </c>
       <c r="F64">
-        <v>7.508240502334654</v>
+        <v>7.798240617433134</v>
       </c>
       <c r="K64">
-        <v>7.519320930019047</v>
+        <v>8.309036310647173</v>
       </c>
       <c r="L64">
-        <v>8.499751947196327</v>
+        <v>7.175235674434253</v>
       </c>
       <c r="M64">
-        <v>8.320929132018138</v>
+        <v>8.30755916860088</v>
       </c>
       <c r="N64">
-        <v>0.02423298271700656</v>
+        <v>0.02372945159988464</v>
       </c>
       <c r="O64">
-        <v>0.001979466745640618</v>
+        <v>0.001455463558217347</v>
       </c>
       <c r="P64">
-        <v>0.02134221262690548</v>
+        <v>0.02140651461136634</v>
       </c>
       <c r="Q64">
-        <v>0.001725200304645966</v>
+        <v>0.001656040449303627</v>
       </c>
       <c r="R64">
-        <v>0.00229235946596912</v>
+        <v>0.00186701579120635</v>
       </c>
       <c r="S64">
-        <v>4.43307400080304E-06</v>
+        <v>4.015756340544728E-06</v>
       </c>
       <c r="T64">
-        <v>0.004894342205183293</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>0.001574905504929319</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>15.58659877236209</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0.0008340963141282543</v>
+        <v>4.287333034087425</v>
       </c>
       <c r="X64">
-        <v>1.624033953499048E-06</v>
+        <v>0.0004367557065618951</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -4420,61 +4420,61 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.969694141239681E-06</v>
+        <v>5.370613288333331E-06</v>
       </c>
       <c r="C65">
-        <v>0.0919407695219044</v>
+        <v>0.08425749835181442</v>
       </c>
       <c r="D65">
-        <v>0.007008240486019576</v>
+        <v>0.00600873729025308</v>
       </c>
       <c r="E65">
-        <v>0.09813542961153038</v>
+        <v>0.09044255292902129</v>
       </c>
       <c r="F65">
-        <v>7.508217753341556</v>
+        <v>7.798217872242413</v>
       </c>
       <c r="K65">
-        <v>7.514206611916386</v>
+        <v>8.308614923544756</v>
       </c>
       <c r="L65">
-        <v>8.493911666786358</v>
+        <v>7.178694917218572</v>
       </c>
       <c r="M65">
-        <v>8.320792036261491</v>
+        <v>8.307336564605508</v>
       </c>
       <c r="N65">
-        <v>0.02483442909461104</v>
+        <v>0.02433145127668646</v>
       </c>
       <c r="O65">
-        <v>0.002039361985746945</v>
+        <v>0.001504443606458909</v>
       </c>
       <c r="P65">
-        <v>0.02187240214912871</v>
+        <v>0.02194031121034101</v>
       </c>
       <c r="Q65">
-        <v>0.001782202954550216</v>
+        <v>0.001709864068309132</v>
       </c>
       <c r="R65">
-        <v>0.002354195314400695</v>
+        <v>0.00191736714350002</v>
       </c>
       <c r="S65">
-        <v>4.555869728936553E-06</v>
+        <v>4.127561967045891E-06</v>
       </c>
       <c r="T65">
-        <v>0.004984056710595563</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>0.00161283295060923</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>15.69614258015309</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.0008584388068374951</v>
+        <v>4.320566197342949</v>
       </c>
       <c r="X65">
-        <v>1.624289669404181E-06</v>
+        <v>0.0004497207014474792</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -4482,61 +4482,61 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.920559295721421E-06</v>
+        <v>5.32394863996049E-06</v>
       </c>
       <c r="C66">
-        <v>0.09430000643956787</v>
+        <v>0.0864310750479689</v>
       </c>
       <c r="D66">
-        <v>0.007261011357272269</v>
+        <v>0.006220641492829204</v>
       </c>
       <c r="E66">
-        <v>0.1007414847491218</v>
+        <v>0.09287259286758023</v>
       </c>
       <c r="F66">
-        <v>7.508194549375142</v>
+        <v>7.798194672327008</v>
       </c>
       <c r="K66">
-        <v>7.508999758990142</v>
+        <v>8.308155696938414</v>
       </c>
       <c r="L66">
-        <v>8.487907808885643</v>
+        <v>7.182320347205162</v>
       </c>
       <c r="M66">
-        <v>8.320696747089558</v>
+        <v>8.307080167361788</v>
       </c>
       <c r="N66">
-        <v>0.0254676254031906</v>
+        <v>0.02496553482308166</v>
       </c>
       <c r="O66">
-        <v>0.002103321393964356</v>
+        <v>0.00155683857741925</v>
       </c>
       <c r="P66">
-        <v>0.022430463237867</v>
+        <v>0.02250226807539745</v>
       </c>
       <c r="Q66">
-        <v>0.001843129774529532</v>
+        <v>0.00176736358804601</v>
       </c>
       <c r="R66">
-        <v>0.002419463076752689</v>
+        <v>0.001970512687431492</v>
       </c>
       <c r="S66">
-        <v>4.686227060465196E-06</v>
+        <v>4.246814070062177E-06</v>
       </c>
       <c r="T66">
-        <v>0.005077701815039628</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>0.001653006368286596</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>15.81097534393633</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>0.0008841559397384637</v>
+        <v>4.354558463344901</v>
       </c>
       <c r="X66">
-        <v>1.624550012050493E-06</v>
+        <v>0.0004634055037156735</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -4544,61 +4544,61 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.868890279322917E-06</v>
+        <v>5.274821327977017E-06</v>
       </c>
       <c r="C67">
-        <v>0.09678683487049061</v>
+        <v>0.0887228017209729</v>
       </c>
       <c r="D67">
-        <v>0.007532483246662018</v>
+        <v>0.00644790552687895</v>
       </c>
       <c r="E67">
-        <v>0.1034896639343528</v>
+        <v>0.09543678463195998</v>
       </c>
       <c r="F67">
-        <v>7.508170863588943</v>
+        <v>7.79817099086406</v>
       </c>
       <c r="K67">
-        <v>7.503692865336107</v>
+        <v>8.307664590747288</v>
       </c>
       <c r="L67">
-        <v>8.481721601875222</v>
+        <v>7.18614650919266</v>
       </c>
       <c r="M67">
-        <v>8.320642281873138</v>
+        <v>8.306807566969711</v>
       </c>
       <c r="N67">
-        <v>0.02613517694631135</v>
+        <v>0.02563435471581488</v>
       </c>
       <c r="O67">
-        <v>0.002171769734547455</v>
+        <v>0.001613010365952857</v>
       </c>
       <c r="P67">
-        <v>0.02301867276539093</v>
+        <v>0.02309469391789321</v>
       </c>
       <c r="Q67">
-        <v>0.001908401114334844</v>
+        <v>0.001828912217056425</v>
       </c>
       <c r="R67">
-        <v>0.00248845670102961</v>
+        <v>0.002026691712384676</v>
       </c>
       <c r="S67">
-        <v>4.82496097067069E-06</v>
+        <v>4.374097354404098E-06</v>
       </c>
       <c r="T67">
-        <v>0.00517555025637543</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>0.001695634230343933</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>15.93137770541227</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>0.0009113655301375399</v>
+        <v>4.389363479619888</v>
       </c>
       <c r="X67">
-        <v>1.624815356733195E-06</v>
+        <v>0.0004778720416014358</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -4606,61 +4606,61 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4.814492137000578E-06</v>
+        <v>5.223035989278487E-06</v>
       </c>
       <c r="C68">
-        <v>0.09941196285942676</v>
+        <v>0.09114265160903448</v>
       </c>
       <c r="D68">
-        <v>0.007824769158526836</v>
+        <v>0.006692232841200984</v>
       </c>
       <c r="E68">
-        <v>0.1063917225535349</v>
+        <v>0.09814637459479643</v>
       </c>
       <c r="F68">
-        <v>7.508146666658895</v>
+        <v>7.798146798556155</v>
       </c>
       <c r="K68">
-        <v>7.498280887275552</v>
+        <v>8.307127632266189</v>
       </c>
       <c r="L68">
-        <v>8.475339503533958</v>
+        <v>7.19016667831519</v>
       </c>
       <c r="M68">
-        <v>8.320633844845519</v>
+        <v>8.306491302843884</v>
       </c>
       <c r="N68">
-        <v>0.026839983040775</v>
+        <v>0.02634086484375199</v>
       </c>
       <c r="O68">
-        <v>0.002245199793546691</v>
+        <v>0.001673379875582796</v>
       </c>
       <c r="P68">
-        <v>0.02363956310806905</v>
+        <v>0.02372015808556488</v>
       </c>
       <c r="Q68">
-        <v>0.001978496260217992</v>
+        <v>0.001894966848541726</v>
       </c>
       <c r="R68">
-        <v>0.002561504693384285</v>
+        <v>0.002086171642238508</v>
       </c>
       <c r="S68">
-        <v>4.972927799721664E-06</v>
+        <v>4.510545753846128E-06</v>
       </c>
       <c r="T68">
-        <v>0.005277900727729297</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>0.001740956681139889</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>16.05766377039792</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>0.00094020041368816</v>
+        <v>4.425007552680491</v>
       </c>
       <c r="X68">
-        <v>1.625085955636222E-06</v>
+        <v>0.0004931884868894532</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -4668,61 +4668,61 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.757150385970364E-06</v>
+        <v>5.168376792446463E-06</v>
       </c>
       <c r="C69">
-        <v>0.1021873323655146</v>
+        <v>0.09370175520805973</v>
       </c>
       <c r="D69">
-        <v>0.008140306647295242</v>
+        <v>0.006955584166701213</v>
       </c>
       <c r="E69">
-        <v>0.1094607224220145</v>
+        <v>0.1010138776912606</v>
       </c>
       <c r="F69">
-        <v>7.508121926471565</v>
+        <v>7.798122063320034</v>
       </c>
       <c r="K69">
-        <v>7.492759686649474</v>
+        <v>8.30655076923142</v>
       </c>
       <c r="L69">
-        <v>8.468761008316717</v>
+        <v>7.194419012684992</v>
       </c>
       <c r="M69">
-        <v>8.320681009208183</v>
+        <v>8.306148963195387</v>
       </c>
       <c r="N69">
-        <v>0.02758527950281222</v>
+        <v>0.02708836438824197</v>
       </c>
       <c r="O69">
-        <v>0.002324180329835355</v>
+        <v>0.001738426568698133</v>
       </c>
       <c r="P69">
-        <v>0.02429595907315544</v>
+        <v>0.02438152751698982</v>
       </c>
       <c r="Q69">
-        <v>0.00205396255902846</v>
+        <v>0.001966023041393642</v>
       </c>
       <c r="R69">
-        <v>0.002638975352947453</v>
+        <v>0.002149252281525921</v>
       </c>
       <c r="S69">
-        <v>5.131068747863699E-06</v>
+        <v>4.65697205856309E-06</v>
       </c>
       <c r="T69">
-        <v>0.005385080850353219</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>0.001789249288571223</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>16.19018594704166</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>0.0009708097628443803</v>
+        <v>4.461552977007166</v>
       </c>
       <c r="X69">
-        <v>1.625362015667526E-06</v>
+        <v>0.0005094323998012473</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -4730,61 +4730,61 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>4.696628752792961E-06</v>
+        <v>5.110604916324281E-06</v>
       </c>
       <c r="C70">
-        <v>0.105126301919209</v>
+        <v>0.09641257305310219</v>
       </c>
       <c r="D70">
-        <v>0.008481921381068187</v>
+        <v>0.007240227120735479</v>
       </c>
       <c r="E70">
-        <v>0.1127112145188344</v>
+        <v>0.1040532577814763</v>
       </c>
       <c r="F70">
-        <v>7.508096607758763</v>
+        <v>7.79809674992162</v>
       </c>
       <c r="K70">
-        <v>7.487121063932239</v>
+        <v>8.305931436102544</v>
       </c>
       <c r="L70">
-        <v>8.46195721501315</v>
+        <v>7.198919158445694</v>
       </c>
       <c r="M70">
-        <v>8.320780627131736</v>
+        <v>8.305775990448405</v>
       </c>
       <c r="N70">
-        <v>0.02837468885196775</v>
+        <v>0.02788054994510272</v>
       </c>
       <c r="O70">
-        <v>0.002409358078533128</v>
+        <v>0.001808706454422413</v>
       </c>
       <c r="P70">
-        <v>0.02499102146422191</v>
+        <v>0.02508201203185221</v>
       </c>
       <c r="Q70">
-        <v>0.00213544397461451</v>
+        <v>0.002042666528921324</v>
       </c>
       <c r="R70">
-        <v>0.002721282986828691</v>
+        <v>0.002216270884946776</v>
       </c>
       <c r="S70">
-        <v>5.300635101184394E-06</v>
+        <v>4.814563176015235E-06</v>
       </c>
       <c r="T70">
-        <v>0.005497450586658906</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>0.001840815579717627</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>16.3293378476269</v>
+        <v>0</v>
       </c>
       <c r="W70">
-        <v>0.001003360495242826</v>
+        <v>4.499055189593534</v>
       </c>
       <c r="X70">
-        <v>1.625643946803388E-06</v>
+        <v>0.0005266910521229987</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -4792,61 +4792,61 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4.632666597112518E-06</v>
+        <v>5.049455546449708E-06</v>
       </c>
       <c r="C71">
-        <v>0.1082438625817297</v>
+        <v>0.09928910034124305</v>
       </c>
       <c r="D71">
-        <v>0.008852906036805152</v>
+        <v>0.007548797730859901</v>
       </c>
       <c r="E71">
-        <v>0.1161594525676346</v>
+        <v>0.1072801388379177</v>
       </c>
       <c r="F71">
-        <v>7.508070671675377</v>
+        <v>7.798070819554776</v>
       </c>
       <c r="K71">
-        <v>7.481354819747566</v>
+        <v>8.305258815495222</v>
       </c>
       <c r="L71">
-        <v>8.45490708390003</v>
+        <v>7.203686338935818</v>
       </c>
       <c r="M71">
-        <v>8.320937357280267</v>
+        <v>8.305356994417666</v>
       </c>
       <c r="N71">
-        <v>0.02921228016723984</v>
+        <v>0.0287215771544795</v>
       </c>
       <c r="O71">
-        <v>0.002501490502218865</v>
+        <v>0.001884867427106783</v>
       </c>
       <c r="P71">
-        <v>0.02572829815743505</v>
+        <v>0.02582521672549514</v>
       </c>
       <c r="Q71">
-        <v>0.002223683011262565</v>
+        <v>0.002125584570014199</v>
       </c>
       <c r="R71">
-        <v>0.002808895320755385</v>
+        <v>0.002287608185649059</v>
       </c>
       <c r="S71">
-        <v>5.482977538565838E-06</v>
+        <v>4.984817230751943E-06</v>
       </c>
       <c r="T71">
-        <v>0.005615406554624754</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>0.001896009183254223</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>16.47556137361187</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0.001038041169760773</v>
+        <v>4.537560003936491</v>
       </c>
       <c r="X71">
-        <v>1.625932259012622E-06</v>
+        <v>0.0005450620261600573</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -4854,61 +4854,61 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.564975999291132E-06</v>
+        <v>4.984634499950691E-06</v>
       </c>
       <c r="C72">
-        <v>0.1115568944665605</v>
+        <v>0.1023471104282558</v>
       </c>
       <c r="D72">
-        <v>0.009257118923027231</v>
+        <v>0.007884377057160809</v>
       </c>
       <c r="E72">
-        <v>0.1198236435337104</v>
+        <v>0.1107120533777874</v>
       </c>
       <c r="F72">
-        <v>7.508044075298945</v>
+        <v>7.798044229341643</v>
       </c>
       <c r="K72">
-        <v>7.47545431874747</v>
+        <v>8.304535244615414</v>
       </c>
       <c r="L72">
-        <v>8.447587261472108</v>
+        <v>7.208768031927162</v>
       </c>
       <c r="M72">
-        <v>8.321156264208582</v>
+        <v>8.304911533136767</v>
       </c>
       <c r="N72">
-        <v>0.03010263982274054</v>
+        <v>0.02961613414539193</v>
       </c>
       <c r="O72">
-        <v>0.002601463201897906</v>
+        <v>0.001967662349727111</v>
       </c>
       <c r="P72">
-        <v>0.02651178532897414</v>
+        <v>0.02661520446401117</v>
       </c>
       <c r="Q72">
-        <v>0.002319548793647152</v>
+        <v>0.002215553885174797</v>
       </c>
       <c r="R72">
-        <v>0.002902342398862612</v>
+        <v>0.002363695631263003</v>
       </c>
       <c r="S72">
-        <v>5.679675164487108E-06</v>
+        <v>5.169066644299523E-06</v>
       </c>
       <c r="T72">
-        <v>0.005739386467003772</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>0.001955236379038814</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>16.629353705064</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>0.00107506628835348</v>
+        <v>4.577141236307732</v>
       </c>
       <c r="X72">
-        <v>1.626227284062626E-06</v>
+        <v>0.0005646565953822899</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -4916,61 +4916,61 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.872814901328803E-06</v>
+        <v>6.308813163186177E-06</v>
       </c>
       <c r="C73">
-        <v>0.1150844729335788</v>
+        <v>0.1056044460617418</v>
       </c>
       <c r="D73">
-        <v>0.007422029803289368</v>
+        <v>0.006393964204065655</v>
       </c>
       <c r="E73">
-        <v>0.1214675746145513</v>
+        <v>0.1119364172013201</v>
       </c>
       <c r="F73">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K73">
-        <v>7.46941128245336</v>
+        <v>8.30375649770953</v>
       </c>
       <c r="L73">
-        <v>8.476435641176954</v>
+        <v>7.119141907002214</v>
       </c>
       <c r="M73">
-        <v>8.306569972819901</v>
+        <v>8.304984972744791</v>
       </c>
       <c r="N73">
-        <v>0.031050956257942</v>
+        <v>0.03056952972455277</v>
       </c>
       <c r="O73">
-        <v>0.002175745148124138</v>
+        <v>0.00159294519098598</v>
       </c>
       <c r="P73">
-        <v>0.02734600038191644</v>
+        <v>0.02745657172535035</v>
       </c>
       <c r="Q73">
-        <v>0.001915719274269084</v>
+        <v>0.00184305966023258</v>
       </c>
       <c r="R73">
-        <v>0.003002227320369443</v>
+        <v>0.002445024133491233</v>
       </c>
       <c r="S73">
-        <v>4.744545651569148E-06</v>
+        <v>4.174752398025334E-06</v>
       </c>
       <c r="T73">
-        <v>0.005869874401071527</v>
+        <v>0</v>
       </c>
       <c r="U73">
-        <v>0.001693404787534092</v>
+        <v>0</v>
       </c>
       <c r="V73">
-        <v>16.72792232691228</v>
+        <v>0</v>
       </c>
       <c r="W73">
-        <v>0.001114687115005654</v>
+        <v>4.617870557017504</v>
       </c>
       <c r="X73">
-        <v>1.626529435877332E-06</v>
+        <v>0.0005856048238441013</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -4978,61 +4978,61 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.793517303547775E-06</v>
+        <v>6.233821300719768E-06</v>
       </c>
       <c r="C74">
-        <v>0.118929560188232</v>
+        <v>0.1091476775566588</v>
       </c>
       <c r="D74">
-        <v>0.007775372263655024</v>
+        <v>0.006690492595396889</v>
       </c>
       <c r="E74">
-        <v>0.1256371036896383</v>
+        <v>0.1158148653151588</v>
       </c>
       <c r="F74">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K74">
-        <v>7.463572531297413</v>
+        <v>8.302685165046634</v>
       </c>
       <c r="L74">
-        <v>8.458976730543663</v>
+        <v>7.125237540343725</v>
       </c>
       <c r="M74">
-        <v>8.302538518201994</v>
+        <v>8.303961614652053</v>
       </c>
       <c r="N74">
-        <v>0.03208221379757835</v>
+        <v>0.03160440774360873</v>
       </c>
       <c r="O74">
-        <v>0.002264001430444744</v>
+        <v>0.001668413456047309</v>
       </c>
       <c r="P74">
-        <v>0.02825422470718956</v>
+        <v>0.02837134001339027</v>
       </c>
       <c r="Q74">
-        <v>0.002005751189186682</v>
+        <v>0.001926258661237272</v>
       </c>
       <c r="R74">
-        <v>0.003109280276609367</v>
+        <v>0.002532197325673134</v>
       </c>
       <c r="S74">
-        <v>4.995439652165176E-06</v>
+        <v>4.336682521280224E-06</v>
       </c>
       <c r="T74">
-        <v>0.006019034030126436</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0.001747001858279254</v>
+        <v>0</v>
       </c>
       <c r="V74">
-        <v>16.83407740512376</v>
+        <v>0</v>
       </c>
       <c r="W74">
-        <v>0.00115719604656893</v>
+        <v>4.659083918954003</v>
       </c>
       <c r="X74">
-        <v>1.626821373435129E-06</v>
+        <v>0.000608030257308459</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -5040,61 +5040,61 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.708879591173009E-06</v>
+        <v>6.15367688950217E-06</v>
       </c>
       <c r="C75">
-        <v>0.1230463819632164</v>
+        <v>0.1129423881107797</v>
       </c>
       <c r="D75">
-        <v>0.008163606079694321</v>
+        <v>0.007015593466950765</v>
       </c>
       <c r="E75">
-        <v>0.1301024970758817</v>
+        <v>0.11997136370169</v>
       </c>
       <c r="F75">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K75">
-        <v>7.457626123401602</v>
+        <v>8.301531716172216</v>
       </c>
       <c r="L75">
-        <v>8.451118530446065</v>
+        <v>7.130158782433152</v>
       </c>
       <c r="M75">
-        <v>8.3027536325319</v>
+        <v>8.303061813019529</v>
       </c>
       <c r="N75">
-        <v>0.03318659203339811</v>
+        <v>0.03271314827277767</v>
       </c>
       <c r="O75">
-        <v>0.002362212113439941</v>
+        <v>0.001748458815168976</v>
       </c>
       <c r="P75">
-        <v>0.02922639039304152</v>
+        <v>0.02935078747087742</v>
       </c>
       <c r="Q75">
-        <v>0.00209945616236542</v>
+        <v>0.002015137533631872</v>
       </c>
       <c r="R75">
-        <v>0.003224253789089263</v>
+        <v>0.002625821793938017</v>
       </c>
       <c r="S75">
-        <v>5.186375850664546E-06</v>
+        <v>4.5113456842254E-06</v>
       </c>
       <c r="T75">
-        <v>0.006177257443898554</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>0.001808815434481853</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>16.9490670760346</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.001202900853305407</v>
+        <v>4.70155815873207</v>
       </c>
       <c r="X75">
-        <v>1.62711869382992E-06</v>
+        <v>0.000632115432182842</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -5102,61 +5102,61 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.618360960310748E-06</v>
+        <v>6.067843155810127E-06</v>
       </c>
       <c r="C76">
-        <v>0.1274649502664288</v>
+        <v>0.1170164955970808</v>
       </c>
       <c r="D76">
-        <v>0.008592064330742501</v>
+        <v>0.007373534583031577</v>
       </c>
       <c r="E76">
-        <v>0.134895881191868</v>
+        <v>0.1244364632951651</v>
       </c>
       <c r="F76">
-        <v>9.008044075298944</v>
+        <v>9.298044229341643</v>
       </c>
       <c r="K76">
-        <v>7.451518053851974</v>
+        <v>8.300299416406327</v>
       </c>
       <c r="L76">
-        <v>8.443019567889531</v>
+        <v>7.13546842284515</v>
       </c>
       <c r="M76">
-        <v>8.303038447282754</v>
+        <v>8.302095134826088</v>
       </c>
       <c r="N76">
-        <v>0.03437214510724266</v>
+        <v>0.03390409786730108</v>
       </c>
       <c r="O76">
-        <v>0.002470111561843505</v>
+        <v>0.00183656386804478</v>
       </c>
       <c r="P76">
-        <v>0.0302697340172983</v>
+        <v>0.03040215862230995</v>
       </c>
       <c r="Q76">
-        <v>0.002202490990348036</v>
+        <v>0.002112726974313508</v>
       </c>
       <c r="R76">
-        <v>0.003348064074213825</v>
+        <v>0.002726641426563163</v>
       </c>
       <c r="S76">
-        <v>5.39473242442529E-06</v>
+        <v>4.702667900269068E-06</v>
       </c>
       <c r="T76">
-        <v>0.006345274444260735</v>
+        <v>0</v>
       </c>
       <c r="U76">
-        <v>0.00187594908775709</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>17.07353181726833</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>0.001252164208350412</v>
+        <v>4.7453999556162</v>
       </c>
       <c r="X76">
-        <v>1.627424097307401E-06</v>
+        <v>0.0006580524060807758</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -5164,61 +5164,61 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.520390940159207E-06</v>
+        <v>5.974742894252374E-06</v>
       </c>
       <c r="C77">
-        <v>0.1322198657038562</v>
+        <v>0.1214022140376428</v>
       </c>
       <c r="D77">
-        <v>0.009068579126648778</v>
+        <v>0.007770561279568085</v>
       </c>
       <c r="E77">
-        <v>0.14005262426236</v>
+        <v>0.1292438888291549</v>
       </c>
       <c r="F77">
-        <v>9.006936647509919</v>
+        <v>9.29693692926744</v>
       </c>
       <c r="K77">
-        <v>7.445228921400769</v>
+        <v>8.298977465855097</v>
       </c>
       <c r="L77">
-        <v>8.434499777740799</v>
+        <v>7.141266995843125</v>
       </c>
       <c r="M77">
-        <v>8.303404327036082</v>
+        <v>8.301053421871771</v>
       </c>
       <c r="N77">
-        <v>0.03564822644905863</v>
+        <v>0.03518679922727133</v>
       </c>
       <c r="O77">
-        <v>0.002589417692420402</v>
+        <v>0.001934249530450563</v>
       </c>
       <c r="P77">
-        <v>0.03139242373837631</v>
+        <v>0.0315337358882298</v>
       </c>
       <c r="Q77">
-        <v>0.00231660014279218</v>
+        <v>0.002220624805151397</v>
       </c>
       <c r="R77">
-        <v>0.003481770847885401</v>
+        <v>0.002835518976909679</v>
       </c>
       <c r="S77">
-        <v>5.623820406953897E-06</v>
+        <v>4.913930342248423E-06</v>
       </c>
       <c r="T77">
-        <v>0.006524047458520881</v>
+        <v>0</v>
       </c>
       <c r="U77">
-        <v>0.00194933449190648</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>17.20825015606877</v>
+        <v>0</v>
       </c>
       <c r="W77">
-        <v>0.001305413883963032</v>
+        <v>4.790708124483729</v>
       </c>
       <c r="X77">
-        <v>1.627738553929961E-06</v>
+        <v>0.0006860631192055126</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -5226,61 +5226,61 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.416173185422984E-06</v>
+        <v>5.875592402223614E-06</v>
       </c>
       <c r="C78">
-        <v>0.1373511693112399</v>
+        <v>0.1261368662358959</v>
       </c>
       <c r="D78">
-        <v>0.009598414503198675</v>
+        <v>0.008210839985397967</v>
       </c>
       <c r="E78">
-        <v>0.1456179729929939</v>
+        <v>0.1344367662912016</v>
       </c>
       <c r="F78">
-        <v>9.006910200095369</v>
+        <v>9.296910490391729</v>
       </c>
       <c r="K78">
-        <v>7.438744326626278</v>
+        <v>8.297561071299</v>
       </c>
       <c r="L78">
-        <v>8.425656732684452</v>
+        <v>7.147494254135479</v>
       </c>
       <c r="M78">
-        <v>8.303879953618296</v>
+        <v>8.299934663064215</v>
       </c>
       <c r="N78">
-        <v>0.03702567681391855</v>
+        <v>0.03657232213130553</v>
       </c>
       <c r="O78">
-        <v>0.002721370022670189</v>
+        <v>0.002042518962212434</v>
       </c>
       <c r="P78">
-        <v>0.03260391638819232</v>
+        <v>0.03275511551669141</v>
       </c>
       <c r="Q78">
-        <v>0.002442949650748108</v>
+        <v>0.002339922672209226</v>
       </c>
       <c r="R78">
-        <v>0.00362661030736367</v>
+        <v>0.002953460853849988</v>
       </c>
       <c r="S78">
-        <v>5.874758590052482E-06</v>
+        <v>5.146809654880776E-06</v>
       </c>
       <c r="T78">
-        <v>0.006714660498796481</v>
+        <v>0</v>
       </c>
       <c r="U78">
-        <v>0.002029511566551582</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>17.35405842104131</v>
+        <v>0</v>
       </c>
       <c r="W78">
-        <v>0.001363151210900894</v>
+        <v>4.837606176817857</v>
       </c>
       <c r="X78">
-        <v>1.628062783668686E-06</v>
+        <v>0.0007164077500916219</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -5288,61 +5288,61 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.303976050797979E-06</v>
+        <v>5.76864427910205E-06</v>
       </c>
       <c r="C79">
-        <v>0.1429056369115895</v>
+        <v>0.1312640847685262</v>
       </c>
       <c r="D79">
-        <v>0.01019256643262872</v>
+        <v>0.008703077603444893</v>
       </c>
       <c r="E79">
-        <v>0.1516397884494527</v>
+        <v>0.1400608976654375</v>
       </c>
       <c r="F79">
-        <v>9.006882802473697</v>
+        <v>9.296883102176325</v>
       </c>
       <c r="K79">
-        <v>7.432048931762856</v>
+        <v>8.296043754987711</v>
       </c>
       <c r="L79">
-        <v>8.416384451504141</v>
+        <v>7.154290753815267</v>
       </c>
       <c r="M79">
-        <v>8.304467744117488</v>
+        <v>8.298738497986887</v>
       </c>
       <c r="N79">
-        <v>0.03851716841353806</v>
+        <v>0.0380736179212661</v>
       </c>
       <c r="O79">
-        <v>0.002868475536131027</v>
+        <v>0.00216350788561499</v>
       </c>
       <c r="P79">
-        <v>0.0339152627680812</v>
+        <v>0.03407751520558194</v>
       </c>
       <c r="Q79">
-        <v>0.002584015393454829</v>
+        <v>0.002472848204530974</v>
       </c>
       <c r="R79">
-        <v>0.003784033592092958</v>
+        <v>0.003081648420988907</v>
       </c>
       <c r="S79">
-        <v>6.152350652589074E-06</v>
+        <v>5.405663870368055E-06</v>
       </c>
       <c r="T79">
-        <v>0.00691836262628539</v>
+        <v>0</v>
       </c>
       <c r="U79">
-        <v>0.002117717635566312</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>17.51197231041154</v>
+        <v>0</v>
       </c>
       <c r="W79">
-        <v>0.001425964766242061</v>
+        <v>4.886228823793275</v>
       </c>
       <c r="X79">
-        <v>1.628397553411857E-06</v>
+        <v>0.0007493900478643289</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -5350,61 +5350,61 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.182898025940472E-06</v>
+        <v>5.652979867861254E-06</v>
       </c>
       <c r="C80">
-        <v>0.1489380492060877</v>
+        <v>0.1368350396396663</v>
       </c>
       <c r="D80">
-        <v>0.01086316786014865</v>
+        <v>0.009256824941625292</v>
       </c>
       <c r="E80">
-        <v>0.1581752852275596</v>
+        <v>0.146171123830489</v>
       </c>
       <c r="F80">
-        <v>9.006854363052481</v>
+        <v>9.296854673159917</v>
       </c>
       <c r="K80">
-        <v>7.425118380931824</v>
+        <v>8.294414417658212</v>
       </c>
       <c r="L80">
-        <v>8.40659465145592</v>
+        <v>7.161732327746262</v>
       </c>
       <c r="M80">
-        <v>8.30517130099946</v>
+        <v>8.29745374162202</v>
       </c>
       <c r="N80">
-        <v>0.04013756354432928</v>
+        <v>0.03970589565015933</v>
       </c>
       <c r="O80">
-        <v>0.003033484382302993</v>
+        <v>0.002299548722252546</v>
       </c>
       <c r="P80">
-        <v>0.03533941037601876</v>
+        <v>0.03551409097835698</v>
       </c>
       <c r="Q80">
-        <v>0.00274251433192504</v>
+        <v>0.002621852611515026</v>
       </c>
       <c r="R80">
-        <v>0.003955755466703884</v>
+        <v>0.003221477637221568</v>
       </c>
       <c r="S80">
-        <v>6.46145893536701E-06</v>
+        <v>5.695204552707551E-06</v>
       </c>
       <c r="T80">
-        <v>0.007136573762227166</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>0.002215243351958583</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>17.68318499767585</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>0.001494548478027579</v>
+        <v>4.936727181803196</v>
       </c>
       <c r="X80">
-        <v>1.628744080953409E-06</v>
+        <v>0.0007853705107738168</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -5412,61 +5412,61 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5.051910241319023E-06</v>
+        <v>5.527540444369982E-06</v>
       </c>
       <c r="C81">
-        <v>0.1555130435558943</v>
+        <v>0.1429101927205254</v>
       </c>
       <c r="D81">
-        <v>0.01162552238866689</v>
+        <v>0.009884071179204427</v>
       </c>
       <c r="E81">
-        <v>0.1652913926555164</v>
+        <v>0.1528317509230144</v>
       </c>
       <c r="F81">
-        <v>9.006824776402613</v>
+        <v>9.296825098071769</v>
       </c>
       <c r="K81">
-        <v>7.417931713157595</v>
+        <v>8.292657989076817</v>
       </c>
       <c r="L81">
-        <v>8.396245182360836</v>
+        <v>7.169914504910113</v>
       </c>
       <c r="M81">
-        <v>8.306012748925717</v>
+        <v>8.296064837319081</v>
       </c>
       <c r="N81">
-        <v>0.04190442445680672</v>
+        <v>0.04148715026577394</v>
       </c>
       <c r="O81">
-        <v>0.003219874968559577</v>
+        <v>0.00245357089250298</v>
       </c>
       <c r="P81">
-        <v>0.0368916435209756</v>
+        <v>0.03708038804344469</v>
       </c>
       <c r="Q81">
-        <v>0.002921851661352166</v>
+        <v>0.002790006913683876</v>
       </c>
       <c r="R81">
-        <v>0.004143817086121433</v>
+        <v>0.003374610134015323</v>
       </c>
       <c r="S81">
-        <v>6.807926870113994E-06</v>
+        <v>6.021382172560778E-06</v>
       </c>
       <c r="T81">
-        <v>0.007370922829382814</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>0.002323690498640709</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>17.86911052991058</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0.001569731360434289</v>
+        <v>4.98926739346533</v>
       </c>
       <c r="X81">
-        <v>1.62910341434212E-06</v>
+        <v>0.0008247771345370957</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -5474,61 +5474,61 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.909837845114765E-06</v>
+        <v>5.391102790068497E-06</v>
       </c>
       <c r="C82">
-        <v>0.1627074196142557</v>
+        <v>0.1495614987975915</v>
       </c>
       <c r="D82">
-        <v>0.0124991830731904</v>
+        <v>0.01060005709464885</v>
       </c>
       <c r="E82">
-        <v>0.1730668494409772</v>
+        <v>0.1601186268953992</v>
       </c>
       <c r="F82">
-        <v>9.006793920356492</v>
+        <v>9.29679425493695</v>
       </c>
       <c r="K82">
-        <v>7.41045942469758</v>
+        <v>8.29076820341543</v>
       </c>
       <c r="L82">
-        <v>8.385223645661254</v>
+        <v>7.178969820788849</v>
       </c>
       <c r="M82">
-        <v>8.306997368498052</v>
+        <v>8.294574184273436</v>
       </c>
       <c r="N82">
-        <v>0.04383865193121908</v>
+        <v>0.04343882923443749</v>
       </c>
       <c r="O82">
-        <v>0.003432050245957225</v>
+        <v>0.002629294538678527</v>
       </c>
       <c r="P82">
-        <v>0.03859013311395677</v>
+        <v>0.03879490709993273</v>
       </c>
       <c r="Q82">
-        <v>0.003126386499476644</v>
+        <v>0.002981182773604073</v>
       </c>
       <c r="R82">
-        <v>0.004350667544083999</v>
+        <v>0.003543039571607461</v>
       </c>
       <c r="S82">
-        <v>7.199505042241979E-06</v>
+        <v>6.391462551830199E-06</v>
       </c>
       <c r="T82">
-        <v>0.007623284445919919</v>
+        <v>0</v>
       </c>
       <c r="U82">
-        <v>0.002445026197145813</v>
+        <v>0</v>
       </c>
       <c r="V82">
-        <v>18.0714333881612</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>0.001652507084076845</v>
+        <v>5.044059923902168</v>
       </c>
       <c r="X82">
-        <v>1.629477028765121E-06</v>
+        <v>0.000868124824660965</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -5536,61 +5536,61 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.755340514937712E-06</v>
+        <v>5.242251037010269E-06</v>
       </c>
       <c r="C83">
-        <v>0.1706131162743118</v>
+        <v>0.15687525888722</v>
       </c>
       <c r="D83">
-        <v>0.01350949002332051</v>
+        <v>0.01142442914099052</v>
       </c>
       <c r="E83">
-        <v>0.1815948517293457</v>
+        <v>0.1681217748019217</v>
       </c>
       <c r="F83">
-        <v>9.006761652313457</v>
+        <v>9.29676200139154</v>
       </c>
       <c r="K83">
-        <v>7.402668520092921</v>
+        <v>8.288730508510818</v>
       </c>
       <c r="L83">
-        <v>8.373422920262135</v>
+        <v>7.189048892641675</v>
       </c>
       <c r="M83">
-        <v>8.308142245839591</v>
+        <v>8.292974689716061</v>
       </c>
       <c r="N83">
-        <v>0.04596531517781181</v>
+        <v>0.0455866994815827</v>
       </c>
       <c r="O83">
-        <v>0.003675701915626326</v>
+        <v>0.002831516398417293</v>
       </c>
       <c r="P83">
-        <v>0.04045664609366625</v>
+        <v>0.04067983995921319</v>
       </c>
       <c r="Q83">
-        <v>0.003361739858588158</v>
+        <v>0.003200363987774869</v>
       </c>
       <c r="R83">
-        <v>0.004579271125086197</v>
+        <v>0.003729178945768284</v>
       </c>
       <c r="S83">
-        <v>7.64601822592116E-06</v>
+        <v>6.814923914534644E-06</v>
       </c>
       <c r="T83">
-        <v>0.007895824353750136</v>
+        <v>0</v>
       </c>
       <c r="U83">
-        <v>0.002581729557851711</v>
+        <v>0</v>
       </c>
       <c r="V83">
-        <v>18.29217947897704</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>0.001744079533807609</v>
+        <v>5.101335520771975</v>
       </c>
       <c r="X83">
-        <v>1.629866573995354E-06</v>
+        <v>0.00091603586529945</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -5598,61 +5598,61 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.586893593837384E-06</v>
+        <v>5.079344973333773E-06</v>
       </c>
       <c r="C84">
-        <v>0.179341095510478</v>
+        <v>0.1649558605397883</v>
       </c>
       <c r="D84">
-        <v>0.01468980458000726</v>
+        <v>0.01238290938533327</v>
       </c>
       <c r="E84">
-        <v>0.1909864307515362</v>
+        <v>0.1769487611426335</v>
       </c>
       <c r="F84">
-        <v>9.006727804472767</v>
+        <v>9.296728169928635</v>
       </c>
       <c r="K84">
-        <v>7.394520674246513</v>
+        <v>8.286528985591071</v>
       </c>
       <c r="L84">
-        <v>8.360714091261036</v>
+        <v>7.200342462530855</v>
       </c>
       <c r="M84">
-        <v>8.309465906226347</v>
+        <v>8.291259812740803</v>
       </c>
       <c r="N84">
-        <v>0.04831473813682211</v>
+        <v>0.04796198743064745</v>
       </c>
       <c r="O84">
-        <v>0.003958294507152895</v>
+        <v>0.003066514657648838</v>
       </c>
       <c r="P84">
-        <v>0.04251747421783726</v>
+        <v>0.04276203306873754</v>
       </c>
       <c r="Q84">
-        <v>0.003635299444294981</v>
+        <v>0.003454050639339588</v>
       </c>
       <c r="R84">
-        <v>0.004833250297689546</v>
+        <v>0.003935976946982381</v>
       </c>
       <c r="S84">
-        <v>8.160358043692627E-06</v>
+        <v>7.304119776998453E-06</v>
       </c>
       <c r="T84">
-        <v>0.008191051842411159</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>0.002736947734853811</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>18.53380833721872</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>0.00184592131168415</v>
+        <v>5.16136745967129</v>
       </c>
       <c r="X84">
-        <v>1.630273966287674E-06</v>
+        <v>0.0009692718178042029</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -5660,61 +5660,61 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.402773493861019E-06</v>
+        <v>4.90048605469511E-06</v>
       </c>
       <c r="C85">
-        <v>0.1890264655652116</v>
+        <v>0.1739307400194622</v>
       </c>
       <c r="D85">
-        <v>0.01608482285312542</v>
+        <v>0.01350976392508979</v>
       </c>
       <c r="E85">
-        <v>0.2013748063988883</v>
+        <v>0.1867290462828229</v>
       </c>
       <c r="F85">
-        <v>9.006692177608308</v>
+        <v>9.296692561691167</v>
       </c>
       <c r="K85">
-        <v>7.385967235546278</v>
+        <v>8.284143293195971</v>
       </c>
       <c r="L85">
-        <v>8.346903183101926</v>
+        <v>7.213070633120802</v>
       </c>
       <c r="M85">
-        <v>8.310979737794536</v>
+        <v>8.289410862346276</v>
       </c>
       <c r="N85">
-        <v>0.05092394070327325</v>
+        <v>0.05060289759376502</v>
       </c>
       <c r="O85">
-        <v>0.004289772382797638</v>
+        <v>0.00334265575708957</v>
       </c>
       <c r="P85">
-        <v>0.04480466096922211</v>
+        <v>0.04507426732929037</v>
       </c>
       <c r="Q85">
-        <v>0.00395694750576563</v>
+        <v>0.003750886789015985</v>
       </c>
       <c r="R85">
-        <v>0.005117079117668714</v>
+        <v>0.004167075348582698</v>
       </c>
       <c r="S85">
-        <v>8.759933177051884E-06</v>
+        <v>7.875673459315731E-06</v>
       </c>
       <c r="T85">
-        <v>0.008511881495796887</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>0.002914719980122166</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>18.79933611465054</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>0.001959851548432684</v>
+        <v>5.224474352700131</v>
       </c>
       <c r="X85">
-        <v>1.630701638222686E-06</v>
+        <v>0.001028772840346248</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -5722,61 +5722,61 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.201054228531195E-06</v>
+        <v>4.703484441212507E-06</v>
       </c>
       <c r="C86">
-        <v>0.1998353182347169</v>
+        <v>0.1839570510253603</v>
       </c>
       <c r="D86">
-        <v>0.01775560072697087</v>
+        <v>0.0148515380609831</v>
       </c>
       <c r="E86">
-        <v>0.2129210677969671</v>
+        <v>0.197619665214069</v>
       </c>
       <c r="F86">
-        <v>9.006654532819933</v>
+        <v>9.296654938248409</v>
       </c>
       <c r="K86">
-        <v>7.376954735955707</v>
+        <v>8.281556179731185</v>
       </c>
       <c r="L86">
-        <v>8.331804974591842</v>
+        <v>7.227536956826068</v>
       </c>
       <c r="M86">
-        <v>8.31271125928518</v>
+        <v>8.287432759764794</v>
       </c>
       <c r="N86">
-        <v>0.05383857622330294</v>
+        <v>0.05355666270855721</v>
       </c>
       <c r="O86">
-        <v>0.004683689057493369</v>
+        <v>0.003671297046425001</v>
       </c>
       <c r="P86">
-        <v>0.04735764306068811</v>
+        <v>0.04765697861305749</v>
       </c>
       <c r="Q86">
-        <v>0.00434014079840171</v>
+        <v>0.004102541519719871</v>
       </c>
       <c r="R86">
-        <v>0.005436349066699439</v>
+        <v>0.004427025328277907</v>
       </c>
       <c r="S86">
-        <v>9.468128061484236E-06</v>
+        <v>8.551621990259583E-06</v>
       </c>
       <c r="T86">
-        <v>0.008861704090526553</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0.003120333217753556</v>
+        <v>0</v>
       </c>
       <c r="V86">
-        <v>19.09250849817165</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0.00208814635712822</v>
+        <v>5.291047104772471</v>
       </c>
       <c r="X86">
-        <v>1.631152263202215E-06</v>
+        <v>0.001095714921434822</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -5784,61 +5784,61 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.97962832064056E-06</v>
+        <v>4.485834555023797E-06</v>
       </c>
       <c r="C87">
-        <v>0.2119739660685666</v>
+        <v>0.1952307518896521</v>
       </c>
       <c r="D87">
-        <v>0.01978735674675374</v>
+        <v>0.01647285552148185</v>
       </c>
       <c r="E87">
-        <v>0.2258216981910219</v>
+        <v>0.2098127417542862</v>
       </c>
       <c r="F87">
-        <v>9.00661458041016</v>
+        <v>9.296615010508713</v>
       </c>
       <c r="K87">
-        <v>7.36741017239065</v>
+        <v>8.278744568152925</v>
       </c>
       <c r="L87">
-        <v>8.31514756739054</v>
+        <v>7.244107625567533</v>
       </c>
       <c r="M87">
-        <v>8.314680271062898</v>
+        <v>8.285314429815925</v>
       </c>
       <c r="N87">
-        <v>0.05711556870102358</v>
+        <v>0.05688235375269936</v>
       </c>
       <c r="O87">
-        <v>0.005158871235045054</v>
+        <v>0.004068208962008115</v>
       </c>
       <c r="P87">
-        <v>0.05022547654484053</v>
+        <v>0.05056060775261333</v>
       </c>
       <c r="Q87">
-        <v>0.004803633442216303</v>
+        <v>0.004525181830864807</v>
       </c>
       <c r="R87">
-        <v>0.005798141129275303</v>
+        <v>0.004721590242030417</v>
       </c>
       <c r="S87">
-        <v>1.031772832588695E-05</v>
+        <v>9.362818034833427E-06</v>
       </c>
       <c r="T87">
-        <v>0.00924446214871142</v>
+        <v>0</v>
       </c>
       <c r="U87">
-        <v>0.003360773877713893</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>19.41803517610744</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>0.002233689754938298</v>
+        <v>5.361553463900158</v>
       </c>
       <c r="X87">
-        <v>1.631629491380467E-06</v>
+        <v>0.001171588293003226</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -5846,61 +5846,61 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>8.179489685742546E-06</v>
+        <v>8.76334386313775E-06</v>
       </c>
       <c r="C88">
-        <v>0.2257015810201247</v>
+        <v>0.2079991730588072</v>
       </c>
       <c r="D88">
-        <v>0.01092768648002598</v>
+        <v>0.00948499569348271</v>
       </c>
       <c r="E88">
-        <v>0.2447918906987617</v>
+        <v>0.2269634854956012</v>
       </c>
       <c r="F88">
-        <v>14.20661458041016</v>
+        <v>14.49661501050871</v>
       </c>
       <c r="K88">
-        <v>7.357258046332476</v>
+        <v>8.275683417435783</v>
       </c>
       <c r="L88">
-        <v>8.522953987346645</v>
+        <v>6.987162640288461</v>
       </c>
       <c r="M88">
-        <v>8.32649281562758</v>
+        <v>8.281664866684119</v>
       </c>
       <c r="N88">
-        <v>0.0608267613771649</v>
+        <v>0.06065479266632016</v>
       </c>
       <c r="O88">
-        <v>0.003227165615733703</v>
+        <v>0.002328424588236347</v>
       </c>
       <c r="P88">
-        <v>0.05346989390931369</v>
+        <v>0.05384885246130966</v>
       </c>
       <c r="Q88">
-        <v>0.002831434658341183</v>
+        <v>0.002820571223512238</v>
       </c>
       <c r="R88">
-        <v>0.006211557086485975</v>
+        <v>0.005058177915172959</v>
       </c>
       <c r="S88">
-        <v>5.341262372509656E-06</v>
+        <v>5.287956467268406E-06</v>
       </c>
       <c r="T88">
-        <v>0.009664725596639815</v>
+        <v>0</v>
       </c>
       <c r="U88">
-        <v>0.002331480835060387</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>19.57031497845139</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>0.002400230783270374</v>
+        <v>5.436568773180387</v>
       </c>
       <c r="X88">
-        <v>1.632137097683376E-06</v>
+        <v>0.001258320821298254</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -5908,61 +5908,61 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.828932817415425E-06</v>
+        <v>8.429338296030146E-06</v>
       </c>
       <c r="C89">
-        <v>0.2422226498309015</v>
+        <v>0.2232694943946014</v>
       </c>
       <c r="D89">
-        <v>0.0122469963482497</v>
+        <v>0.01058965969341778</v>
       </c>
       <c r="E89">
-        <v>0.26311280384584</v>
+        <v>0.2441423127432697</v>
       </c>
       <c r="F89">
-        <v>14.20532491053986</v>
+        <v>14.49532551245201</v>
       </c>
       <c r="K89">
-        <v>7.347178341149523</v>
+        <v>8.271464105372473</v>
       </c>
       <c r="L89">
-        <v>8.476519737201075</v>
+        <v>7.003560587464368</v>
       </c>
       <c r="M89">
-        <v>8.316902044564046</v>
+        <v>8.276981022905144</v>
       </c>
       <c r="N89">
-        <v>0.06525749951265962</v>
+        <v>0.06514143636463431</v>
       </c>
       <c r="O89">
-        <v>0.00355132313638431</v>
+        <v>0.00260851795342244</v>
       </c>
       <c r="P89">
-        <v>0.05736516000554235</v>
+        <v>0.05777410486421716</v>
       </c>
       <c r="Q89">
-        <v>0.003164870198888669</v>
+        <v>0.003136861453926667</v>
       </c>
       <c r="R89">
-        <v>0.006688958303725473</v>
+        <v>0.005446861758150319</v>
       </c>
       <c r="S89">
-        <v>6.068272308075786E-06</v>
+        <v>5.817567217199325E-06</v>
       </c>
       <c r="T89">
-        <v>0.01022882134753054</v>
+        <v>0</v>
       </c>
       <c r="U89">
-        <v>0.002513681120108285</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>19.74814306021714</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>0.002592451746509196</v>
+        <v>5.513325998199733</v>
       </c>
       <c r="X89">
-        <v>1.632641082942524E-06</v>
+        <v>0.001358318211783474</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -5970,61 +5970,61 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.428790625828853E-06</v>
+        <v>8.046775746978734E-06</v>
       </c>
       <c r="C90">
-        <v>0.2613872876211226</v>
+        <v>0.2409928139530334</v>
       </c>
       <c r="D90">
-        <v>0.01390997233832867</v>
+        <v>0.01197186280891552</v>
       </c>
       <c r="E90">
-        <v>0.2842769846682991</v>
+        <v>0.2640254873430291</v>
       </c>
       <c r="F90">
-        <v>14.20528325823707</v>
+        <v>14.49528387942554</v>
       </c>
       <c r="K90">
-        <v>7.336583566521544</v>
+        <v>8.266788277186794</v>
       </c>
       <c r="L90">
-        <v>8.461902833441622</v>
+        <v>7.019751833586623</v>
       </c>
       <c r="M90">
-        <v>8.319869454846021</v>
+        <v>8.272625897140653</v>
       </c>
       <c r="N90">
-        <v>0.07039968087734923</v>
+        <v>0.07035251289890197</v>
       </c>
       <c r="O90">
-        <v>0.003962462180492288</v>
+        <v>0.002944941783157759</v>
       </c>
       <c r="P90">
-        <v>0.06188185082276349</v>
+        <v>0.06232720848174137</v>
       </c>
       <c r="Q90">
-        <v>0.003551835840342431</v>
+        <v>0.00351638712885307</v>
       </c>
       <c r="R90">
-        <v>0.007245865806343591</v>
+        <v>0.005900282107394747</v>
       </c>
       <c r="S90">
-        <v>6.652052635679307E-06</v>
+        <v>6.461720539841954E-06</v>
       </c>
       <c r="T90">
-        <v>0.01087174969981573</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>0.002756481578744671</v>
+        <v>0</v>
       </c>
       <c r="V90">
-        <v>19.96019834493146</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>0.002816988138802031</v>
+        <v>5.595606959267613</v>
       </c>
       <c r="X90">
-        <v>1.633170821673923E-06</v>
+        <v>0.00147499322998655</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -6032,61 +6032,61 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.96739246691312E-06</v>
+        <v>7.603613020059369E-06</v>
       </c>
       <c r="C91">
-        <v>0.2838852253741038</v>
+        <v>0.2618129004206805</v>
       </c>
       <c r="D91">
-        <v>0.01606684037008964</v>
+        <v>0.01374858423637517</v>
       </c>
       <c r="E91">
-        <v>0.3089605676376412</v>
+        <v>0.2872674594511456</v>
       </c>
       <c r="F91">
-        <v>14.20523795563361</v>
+        <v>14.49523860009287</v>
       </c>
       <c r="K91">
-        <v>7.325120393426355</v>
+        <v>8.261589383234343</v>
       </c>
       <c r="L91">
-        <v>8.444700136149864</v>
+        <v>7.039560270090961</v>
       </c>
       <c r="M91">
-        <v>8.323239476643487</v>
+        <v>8.267833103510386</v>
       </c>
       <c r="N91">
-        <v>0.07643942803160896</v>
+        <v>0.07648047390942418</v>
       </c>
       <c r="O91">
-        <v>0.004487259034312067</v>
+        <v>0.00337711200092159</v>
       </c>
       <c r="P91">
-        <v>0.06718457945752905</v>
+        <v>0.0676736467865494</v>
       </c>
       <c r="Q91">
-        <v>0.004048360037757387</v>
+        <v>0.003998979018186253</v>
       </c>
       <c r="R91">
-        <v>0.007903976147589765</v>
+        <v>0.006436083960745194</v>
       </c>
       <c r="S91">
-        <v>7.392663669062016E-06</v>
+        <v>7.280445587211908E-06</v>
       </c>
       <c r="T91">
-        <v>0.01160950134718583</v>
+        <v>0</v>
       </c>
       <c r="U91">
-        <v>0.003057955527557199</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>20.21447408439449</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>0.003082619825116117</v>
+        <v>5.684412162419697</v>
       </c>
       <c r="X91">
-        <v>1.633743980328682E-06</v>
+        <v>0.001612900351052567</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -6094,61 +6094,61 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.431703493709326E-06</v>
+        <v>7.085966196599719E-06</v>
       </c>
       <c r="C92">
-        <v>0.3106670638745053</v>
+        <v>0.2866193320391111</v>
       </c>
       <c r="D92">
-        <v>0.01896244060869098</v>
+        <v>0.01610772341307423</v>
       </c>
       <c r="E92">
-        <v>0.338064469682928</v>
+        <v>0.3147439965926188</v>
       </c>
       <c r="F92">
-        <v>14.20518821866498</v>
+        <v>14.49518889171514</v>
       </c>
       <c r="K92">
-        <v>7.312598338201392</v>
+        <v>8.255766075938542</v>
       </c>
       <c r="L92">
-        <v>8.423806511353973</v>
+        <v>7.06425721020053</v>
       </c>
       <c r="M92">
-        <v>8.327149440031672</v>
+        <v>8.262548961349097</v>
       </c>
       <c r="N92">
-        <v>0.08363464493133865</v>
+        <v>0.08379081010027445</v>
       </c>
       <c r="O92">
-        <v>0.00517947468600585</v>
+        <v>0.003950494102160511</v>
       </c>
       <c r="P92">
-        <v>0.07349820139950622</v>
+        <v>0.07404111356338572</v>
       </c>
       <c r="Q92">
-        <v>0.004707260076114679</v>
+        <v>0.004631999987862093</v>
       </c>
       <c r="R92">
-        <v>0.008693634495981836</v>
+        <v>0.007078964312260993</v>
       </c>
       <c r="S92">
-        <v>8.363051070018587E-06</v>
+        <v>8.354829085018871E-06</v>
       </c>
       <c r="T92">
-        <v>0.01246465592914869</v>
+        <v>0</v>
       </c>
       <c r="U92">
-        <v>0.003442923276563683</v>
+        <v>0</v>
       </c>
       <c r="V92">
-        <v>20.52243368816964</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>0.003401716676427767</v>
+        <v>5.781027302818242</v>
       </c>
       <c r="X92">
-        <v>1.63437008308993E-06</v>
+        <v>0.001778415625128081</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -6156,61 +6156,61 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.806219483497994E-06</v>
+        <v>6.476481834027206E-06</v>
       </c>
       <c r="C93">
-        <v>0.343078688681818</v>
+        <v>0.3166761774420041</v>
       </c>
       <c r="D93">
-        <v>0.02302476340524613</v>
+        <v>0.01937246306857689</v>
       </c>
       <c r="E93">
-        <v>0.3728071545263129</v>
+        <v>0.3476440620848019</v>
       </c>
       <c r="F93">
-        <v>14.20513298810096</v>
+        <v>14.4951336970287</v>
       </c>
       <c r="K93">
-        <v>7.298759481647339</v>
+        <v>8.249184119599249</v>
       </c>
       <c r="L93">
-        <v>8.397590272938343</v>
+        <v>7.095755196265636</v>
       </c>
       <c r="M93">
-        <v>8.331686710565307</v>
+        <v>8.256709707648898</v>
       </c>
       <c r="N93">
-        <v>0.09235188606970897</v>
+        <v>0.09266195632228712</v>
       </c>
       <c r="O93">
-        <v>0.006132623319006585</v>
+        <v>0.004743391303819835</v>
       </c>
       <c r="P93">
-        <v>0.08114163932432751</v>
+        <v>0.08175323729399946</v>
       </c>
       <c r="Q93">
-        <v>0.005620845619521623</v>
+        <v>0.005496320819193681</v>
       </c>
       <c r="R93">
-        <v>0.009658664656527595</v>
+        <v>0.007864587588169436</v>
       </c>
       <c r="S93">
-        <v>9.692415975452691E-06</v>
+        <v>9.823687026848601E-06</v>
       </c>
       <c r="T93">
-        <v>0.01346707066832481</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>0.003951940130890862</v>
+        <v>0</v>
       </c>
       <c r="V93">
-        <v>20.90121846518858</v>
+        <v>0</v>
       </c>
       <c r="W93">
-        <v>0.003792158303940539</v>
+        <v>5.887171321838373</v>
       </c>
       <c r="X93">
-        <v>1.635062025917633E-06</v>
+        <v>0.001980751396093771</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -6218,61 +6218,61 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.074138192937765E-06</v>
+        <v>5.754372384326022E-06</v>
       </c>
       <c r="C94">
-        <v>0.3830854293413895</v>
+        <v>0.3538391417386825</v>
       </c>
       <c r="D94">
-        <v>0.02906092104107763</v>
+        <v>0.02414173917506596</v>
       </c>
       <c r="E94">
-        <v>0.4148775860763491</v>
+        <v>0.3876178177166705</v>
       </c>
       <c r="F94">
-        <v>14.20507078680208</v>
+        <v>14.49507154193406</v>
       </c>
       <c r="K94">
-        <v>7.283233087564238</v>
+        <v>8.241676725608233</v>
       </c>
       <c r="L94">
-        <v>8.363616260033071</v>
+        <v>7.137005986132015</v>
       </c>
       <c r="M94">
-        <v>8.33697534037918</v>
+        <v>8.250256899347374</v>
       </c>
       <c r="N94">
-        <v>0.1031292939135468</v>
+        <v>0.1036517769495955</v>
       </c>
       <c r="O94">
-        <v>0.007521704088514331</v>
+        <v>0.005900928220648672</v>
       </c>
       <c r="P94">
-        <v>0.09058173853742826</v>
+        <v>0.09128535185335018</v>
       </c>
       <c r="Q94">
-        <v>0.006962572477896049</v>
+        <v>0.00674059374921188</v>
       </c>
       <c r="R94">
-        <v>0.01086478618659661</v>
+        <v>0.008846433075812262</v>
       </c>
       <c r="S94">
-        <v>1.162183262360709E-05</v>
+        <v>1.194259572140475E-05</v>
       </c>
       <c r="T94">
-        <v>0.01465646198550405</v>
+        <v>0</v>
       </c>
       <c r="U94">
-        <v>0.004655594964782939</v>
+        <v>0</v>
       </c>
       <c r="V94">
-        <v>21.37786709514971</v>
+        <v>0</v>
       </c>
       <c r="W94">
-        <v>0.004280785414325157</v>
+        <v>6.005241422072608</v>
       </c>
       <c r="X94">
-        <v>1.635838345621788E-06</v>
+        <v>0.002233730990857485</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -6280,61 +6280,61 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.220845836082104E-06</v>
+        <v>4.896233526206854E-06</v>
       </c>
       <c r="C95">
-        <v>0.433660359098577</v>
+        <v>0.4009387706763421</v>
       </c>
       <c r="D95">
-        <v>0.038750634099303</v>
+        <v>0.03164329475923795</v>
       </c>
       <c r="E95">
-        <v>0.4666953033394503</v>
+        <v>0.4370147251093859</v>
       </c>
       <c r="F95">
-        <v>14.20279183972963</v>
+        <v>14.49279318463729</v>
       </c>
       <c r="K95">
-        <v>7.265464792926724</v>
+        <v>8.233013560187754</v>
       </c>
       <c r="L95">
-        <v>8.318184741104384</v>
+        <v>7.192741596668222</v>
       </c>
       <c r="M95">
-        <v>8.343191340578738</v>
+        <v>8.243126273857246</v>
       </c>
       <c r="N95">
-        <v>0.1167875210314086</v>
+        <v>0.1176161839108737</v>
       </c>
       <c r="O95">
-        <v>0.009708528334744813</v>
+        <v>0.00772069177978354</v>
       </c>
       <c r="P95">
-        <v>0.10252733368879</v>
+        <v>0.1033631744396557</v>
       </c>
       <c r="Q95">
-        <v>0.009092394748168</v>
+        <v>0.008667417446565736</v>
       </c>
       <c r="R95">
-        <v>0.01241523823716419</v>
+        <v>0.01010850314439667</v>
       </c>
       <c r="S95">
-        <v>1.464705873817822E-05</v>
+        <v>1.523301938976125E-05</v>
       </c>
       <c r="T95">
-        <v>0.0160851572741785</v>
+        <v>0</v>
       </c>
       <c r="U95">
-        <v>0.00568552782392999</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>21.99788904457453</v>
+        <v>0</v>
       </c>
       <c r="W95">
-        <v>0.004909808672007543</v>
+        <v>6.138694451908293</v>
       </c>
       <c r="X95">
-        <v>1.636726760353664E-06</v>
+        <v>0.002559083624027849</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -6342,61 +6342,61 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3.256187101639459E-06</v>
+        <v>3.892893911141889E-06</v>
       </c>
       <c r="C96">
-        <v>0.4994786465984561</v>
+        <v>0.4624880166625263</v>
       </c>
       <c r="D96">
-        <v>0.05588970949150811</v>
+        <v>0.044649832567278</v>
       </c>
       <c r="E96">
-        <v>0.5320470908641537</v>
+        <v>0.4994302128254187</v>
       </c>
       <c r="F96">
-        <v>14.2025937497335</v>
+        <v>14.49259529656788</v>
       </c>
       <c r="K96">
-        <v>7.244553177377385</v>
+        <v>8.222923663835417</v>
       </c>
       <c r="L96">
-        <v>8.257296206494303</v>
+        <v>7.269863910198534</v>
       </c>
       <c r="M96">
-        <v>8.350837797699343</v>
+        <v>8.23534729133044</v>
       </c>
       <c r="N96">
-        <v>0.1346340198141859</v>
+        <v>0.1359320992660554</v>
       </c>
       <c r="O96">
-        <v>0.01350647799609042</v>
+        <v>0.01087459227175696</v>
       </c>
       <c r="P96">
-        <v>0.1180998235122271</v>
+        <v>0.1191458006051707</v>
       </c>
       <c r="Q96">
-        <v>0.0128205716299821</v>
+        <v>0.01195607238769747</v>
       </c>
       <c r="R96">
-        <v>0.01448200343356853</v>
+        <v>0.01179071483189783</v>
       </c>
       <c r="S96">
-        <v>1.984470954550531E-05</v>
+        <v>2.085567286319381E-05</v>
       </c>
       <c r="T96">
-        <v>0.01781842884921992</v>
+        <v>0</v>
       </c>
       <c r="U96">
-        <v>0.007291106510118121</v>
+        <v>0</v>
       </c>
       <c r="V96">
-        <v>22.84165540529759</v>
+        <v>0</v>
       </c>
       <c r="W96">
-        <v>0.005749652371183929</v>
+        <v>6.29288609233344</v>
       </c>
       <c r="X96">
-        <v>1.637772341131131E-06</v>
+        <v>0.002993042908778679</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -6404,19 +6404,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.246711873265104E-06</v>
+        <v>2.77494484388806E-06</v>
       </c>
       <c r="C97">
-        <v>0.5881964340198446</v>
+        <v>0.5460556534815749</v>
       </c>
       <c r="D97">
-        <v>0.08978377823633084</v>
+        <v>0.07032595679308451</v>
       </c>
       <c r="E97">
-        <v>0.617565778733886</v>
+        <v>0.5809242069094225</v>
       </c>
       <c r="F97">
-        <v>14.20235378181996</v>
+        <v>14.49235562527688</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6428,31 +6428,31 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>0.1588595281778047</v>
+        <v>0.1609436006649148</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>0.1391556738886758</v>
+        <v>0.1405837462486651</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>0.0173744351783731</v>
+        <v>0.01414468666370473</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.01992389331704025</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97">
-        <v>22.60372149482574</v>
+        <v>0</v>
       </c>
       <c r="W97">
         <v>0</v>
